--- a/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14775099590793</v>
+        <v>23.43697525569314</v>
       </c>
       <c r="C2">
-        <v>10.70308967482122</v>
+        <v>14.36403568215495</v>
       </c>
       <c r="D2">
-        <v>8.324861991963779</v>
+        <v>4.194103126691228</v>
       </c>
       <c r="E2">
-        <v>6.085954203363484</v>
+        <v>6.8493097045064</v>
       </c>
       <c r="F2">
-        <v>63.93426163559087</v>
+        <v>31.80422295674776</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.751517872324872</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.39158883371929</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.090677923122801</v>
+        <v>6.149495694231925</v>
       </c>
       <c r="M2">
-        <v>12.58840191317017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.5131937217339</v>
+      </c>
+      <c r="N2">
+        <v>13.01136362414289</v>
+      </c>
+      <c r="O2">
+        <v>24.94021472179734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.7887923405026</v>
+        <v>21.88763491735453</v>
       </c>
       <c r="C3">
-        <v>9.911083111705405</v>
+        <v>13.47498055451011</v>
       </c>
       <c r="D3">
-        <v>7.953720493072902</v>
+        <v>4.289657677147905</v>
       </c>
       <c r="E3">
-        <v>5.981621228660007</v>
+        <v>6.864542374980045</v>
       </c>
       <c r="F3">
-        <v>60.29937693525259</v>
+        <v>30.51040423200342</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.527901509787062</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.24801502025709</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.828386176634405</v>
+        <v>6.072350033149857</v>
       </c>
       <c r="M3">
-        <v>11.68648922303537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.90952577199741</v>
+      </c>
+      <c r="N3">
+        <v>13.27573415635303</v>
+      </c>
+      <c r="O3">
+        <v>24.12817007727293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.9191413226001</v>
+        <v>20.9155422792101</v>
       </c>
       <c r="C4">
-        <v>9.404980155296972</v>
+        <v>12.90283057355104</v>
       </c>
       <c r="D4">
-        <v>7.721865978056186</v>
+        <v>4.348876762129656</v>
       </c>
       <c r="E4">
-        <v>5.9202631550503</v>
+        <v>6.874753153155854</v>
       </c>
       <c r="F4">
-        <v>58.00926904588564</v>
+        <v>29.72400623007619</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.391940713168021</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.51493701593084</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.670733986999125</v>
+        <v>6.027916766502023</v>
       </c>
       <c r="M4">
-        <v>11.18837076518473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.53385815765916</v>
+      </c>
+      <c r="N4">
+        <v>13.44107565805308</v>
+      </c>
+      <c r="O4">
+        <v>23.64366018371917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.55567775560573</v>
+        <v>20.50967044848652</v>
       </c>
       <c r="C5">
-        <v>9.193565516923732</v>
+        <v>12.66305146733605</v>
       </c>
       <c r="D5">
-        <v>7.626384679870116</v>
+        <v>4.37317168444086</v>
       </c>
       <c r="E5">
-        <v>5.895920225401544</v>
+        <v>6.879123340568473</v>
       </c>
       <c r="F5">
-        <v>57.06161080630602</v>
+        <v>29.40587194945673</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.336857958296131</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.20818782966399</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.607378940829441</v>
+        <v>6.01054043091499</v>
       </c>
       <c r="M5">
-        <v>11.04756857624216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.37969695813404</v>
+      </c>
+      <c r="N5">
+        <v>13.50924712223904</v>
+      </c>
+      <c r="O5">
+        <v>23.44986892608604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.49477146793016</v>
+        <v>20.44169326704941</v>
       </c>
       <c r="C6">
-        <v>9.158142510283477</v>
+        <v>12.62283616505877</v>
       </c>
       <c r="D6">
-        <v>7.610470083875549</v>
+        <v>4.377216355202214</v>
       </c>
       <c r="E6">
-        <v>5.891917509829614</v>
+        <v>6.879861466497925</v>
       </c>
       <c r="F6">
-        <v>56.90339282106493</v>
+        <v>29.35319662631677</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.327730660389383</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.15676174256047</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.596913825002634</v>
+        <v>6.007699003164518</v>
       </c>
       <c r="M6">
-        <v>11.02423350144614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.35403981274134</v>
+      </c>
+      <c r="N6">
+        <v>13.52061586219632</v>
+      </c>
+      <c r="O6">
+        <v>23.4179137604183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.9142765154417</v>
+        <v>20.91010773078411</v>
       </c>
       <c r="C7">
-        <v>9.402150133062355</v>
+        <v>12.8996236556617</v>
       </c>
       <c r="D7">
-        <v>7.720582315431089</v>
+        <v>4.349203721766861</v>
       </c>
       <c r="E7">
-        <v>5.919932204834309</v>
+        <v>6.874811251994019</v>
       </c>
       <c r="F7">
-        <v>57.99654652209531</v>
+        <v>29.71970588392204</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.39119655774455</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.51083283844198</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.669875903200969</v>
+        <v>6.0276794751508</v>
       </c>
       <c r="M7">
-        <v>11.18646893576392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.5317831637178</v>
+      </c>
+      <c r="N7">
+        <v>13.44199178429427</v>
+      </c>
+      <c r="O7">
+        <v>23.64103171992445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68635748179197</v>
+        <v>22.89124391782194</v>
       </c>
       <c r="C8">
-        <v>10.43399489103925</v>
+        <v>14.06292358311709</v>
       </c>
       <c r="D8">
-        <v>8.197711501087559</v>
+        <v>4.226952058561669</v>
       </c>
       <c r="E8">
-        <v>6.049407316596237</v>
+        <v>6.854379729262268</v>
       </c>
       <c r="F8">
-        <v>62.69312121746917</v>
+        <v>31.35662666978507</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.674125773746086</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.00355093675731</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.999552844722263</v>
+        <v>6.122282533099559</v>
       </c>
       <c r="M8">
-        <v>12.28247375603478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.30619222751877</v>
+      </c>
+      <c r="N8">
+        <v>13.10191375857545</v>
+      </c>
+      <c r="O8">
+        <v>24.65735946276209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.89349544330734</v>
+        <v>26.70744981800664</v>
       </c>
       <c r="C9">
-        <v>12.31008488892313</v>
+        <v>16.13764936210763</v>
       </c>
       <c r="D9">
-        <v>9.102843132881997</v>
+        <v>3.990345907571645</v>
       </c>
       <c r="E9">
-        <v>6.325749380436363</v>
+        <v>6.821457094078879</v>
       </c>
       <c r="F9">
-        <v>71.44210385021289</v>
+        <v>34.61896462801362</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.240681609345604</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.69752207418472</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.672131000686773</v>
+        <v>6.331410927762598</v>
       </c>
       <c r="M9">
-        <v>14.40376425569285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.77842229859793</v>
+      </c>
+      <c r="N9">
+        <v>12.45732705415922</v>
+      </c>
+      <c r="O9">
+        <v>26.75818694351207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.10641154573782</v>
+        <v>29.28449003826972</v>
       </c>
       <c r="C10">
-        <v>13.61438109058252</v>
+        <v>17.54013816299101</v>
       </c>
       <c r="D10">
-        <v>9.752268604363955</v>
+        <v>3.816552305464853</v>
       </c>
       <c r="E10">
-        <v>6.544193753458799</v>
+        <v>6.802172160209762</v>
       </c>
       <c r="F10">
-        <v>77.60829247707531</v>
+        <v>37.03721879193163</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.666448417870036</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.55386341949496</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.410088861736108</v>
+        <v>6.499951105960336</v>
       </c>
       <c r="M10">
-        <v>15.86141183927279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.0535938201553</v>
+      </c>
+      <c r="N10">
+        <v>11.99501153675376</v>
+      </c>
+      <c r="O10">
+        <v>28.36394341030116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.08760030206681</v>
+        <v>30.40839243140985</v>
       </c>
       <c r="C11">
-        <v>14.19591501966</v>
+        <v>18.15298419286772</v>
       </c>
       <c r="D11">
-        <v>10.04551353646726</v>
+        <v>3.737033647886332</v>
       </c>
       <c r="E11">
-        <v>6.647435611709245</v>
+        <v>6.794613424846196</v>
       </c>
       <c r="F11">
-        <v>80.36596349177198</v>
+        <v>38.14121795299587</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.863028791437943</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.37682824789413</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.752054023625583</v>
+        <v>6.579989373100202</v>
       </c>
       <c r="M11">
-        <v>16.50639402352787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.66310335711939</v>
+      </c>
+      <c r="N11">
+        <v>11.78662028608415</v>
+      </c>
+      <c r="O11">
+        <v>29.10793871504402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.45606174688297</v>
+        <v>30.82726757076474</v>
       </c>
       <c r="C12">
-        <v>14.41486110309942</v>
+        <v>18.38156535792677</v>
       </c>
       <c r="D12">
-        <v>10.15638427258084</v>
+        <v>3.706812924274803</v>
       </c>
       <c r="E12">
-        <v>6.687143598956441</v>
+        <v>6.791940891939855</v>
       </c>
       <c r="F12">
-        <v>81.40456190731771</v>
+        <v>38.55987539285366</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.937980313913231</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.68589037958154</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.880319449337183</v>
+        <v>6.610795303323096</v>
       </c>
       <c r="M12">
-        <v>16.74840485239393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.89017453012959</v>
+      </c>
+      <c r="N12">
+        <v>11.70794186644406</v>
+      </c>
+      <c r="O12">
+        <v>29.3916702003479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.37683432775361</v>
+        <v>30.73735016051749</v>
       </c>
       <c r="C13">
-        <v>14.36775589246444</v>
+        <v>18.33248930281913</v>
       </c>
       <c r="D13">
-        <v>10.13251141545635</v>
+        <v>3.713327060721245</v>
       </c>
       <c r="E13">
-        <v>6.678563488986665</v>
+        <v>6.792507758693414</v>
       </c>
       <c r="F13">
-        <v>81.18111166510053</v>
+        <v>38.46968203057401</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.921813657050294</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.61943376087937</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.852746466193308</v>
+        <v>6.604138347246058</v>
       </c>
       <c r="M13">
-        <v>16.69637600517721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.84143444389937</v>
+      </c>
+      <c r="N13">
+        <v>11.72487687441671</v>
+      </c>
+      <c r="O13">
+        <v>29.3304733584248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.11797219586823</v>
+        <v>30.44298678960042</v>
       </c>
       <c r="C14">
-        <v>14.21395053254058</v>
+        <v>18.17185885304839</v>
       </c>
       <c r="D14">
-        <v>10.05463750604961</v>
+        <v>3.734549810151019</v>
       </c>
       <c r="E14">
-        <v>6.650689765316282</v>
+        <v>6.794389653899543</v>
       </c>
       <c r="F14">
-        <v>80.4515155599678</v>
+        <v>38.17564869486949</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.869184226515161</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.40230335123886</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.762629921301533</v>
+        <v>6.582513747518562</v>
       </c>
       <c r="M14">
-        <v>16.52634671559646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.681858656517</v>
+      </c>
+      <c r="N14">
+        <v>11.7801428917678</v>
+      </c>
+      <c r="O14">
+        <v>29.13124097599453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.95902754548964</v>
+        <v>30.26181288876839</v>
       </c>
       <c r="C15">
-        <v>14.11958917458196</v>
+        <v>18.07301764172605</v>
       </c>
       <c r="D15">
-        <v>10.00691951509097</v>
+        <v>3.747533854782978</v>
       </c>
       <c r="E15">
-        <v>6.63369797166914</v>
+        <v>6.795567580987193</v>
       </c>
       <c r="F15">
-        <v>80.00391774147741</v>
+        <v>37.99562496310034</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.837016948936498</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.26898591816216</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.707277077126605</v>
+        <v>6.569333232543731</v>
       </c>
       <c r="M15">
-        <v>16.42192067105015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.58363174204244</v>
+      </c>
+      <c r="N15">
+        <v>11.81402429619472</v>
+      </c>
+      <c r="O15">
+        <v>29.00946783592626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.04182227248435</v>
+        <v>29.21008600397076</v>
       </c>
       <c r="C16">
-        <v>13.57617400298399</v>
+        <v>17.4995914387929</v>
       </c>
       <c r="D16">
-        <v>9.733071476151615</v>
+        <v>3.821736244358968</v>
       </c>
       <c r="E16">
-        <v>6.537529019577891</v>
+        <v>6.802691815779009</v>
       </c>
       <c r="F16">
-        <v>77.42720907290459</v>
+        <v>36.96514965615513</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.653667193802869</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.49969018223087</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.387557455879303</v>
+        <v>6.494789228541693</v>
       </c>
       <c r="M16">
-        <v>15.81892689354881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.01322986491421</v>
+      </c>
+      <c r="N16">
+        <v>12.00866547947662</v>
+      </c>
+      <c r="O16">
+        <v>28.31559698498931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.47299505558692</v>
+        <v>28.55264774672713</v>
       </c>
       <c r="C17">
-        <v>13.24006670126684</v>
+        <v>17.14145427918175</v>
       </c>
       <c r="D17">
-        <v>9.564602966705783</v>
+        <v>3.867110360454834</v>
       </c>
       <c r="E17">
-        <v>6.479559532390032</v>
+        <v>6.807383316750655</v>
       </c>
       <c r="F17">
-        <v>75.83506046981171</v>
+        <v>36.33398787399242</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.541989196014002</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.02258610170926</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.189015632244399</v>
+        <v>6.449929884181346</v>
       </c>
       <c r="M17">
-        <v>15.4446185535014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.65649265351311</v>
+      </c>
+      <c r="N17">
+        <v>12.12853357298545</v>
+      </c>
+      <c r="O17">
+        <v>27.8934148894473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.14338289278461</v>
+        <v>28.16993437274277</v>
       </c>
       <c r="C18">
-        <v>13.04560669852658</v>
+        <v>16.93308689773561</v>
       </c>
       <c r="D18">
-        <v>9.467488544137074</v>
+        <v>3.893167943034244</v>
       </c>
       <c r="E18">
-        <v>6.446577267131154</v>
+        <v>6.810194972050869</v>
       </c>
       <c r="F18">
-        <v>74.91475436090106</v>
+        <v>35.9713225118988</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.478020616713344</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.74610994068182</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.073876440728371</v>
+        <v>6.424444124026499</v>
       </c>
       <c r="M18">
-        <v>15.22759606083248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.44875716158347</v>
+      </c>
+      <c r="N18">
+        <v>12.19766155469863</v>
+      </c>
+      <c r="O18">
+        <v>27.65185424670341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.03134746049407</v>
+        <v>28.03956213732861</v>
       </c>
       <c r="C19">
-        <v>12.97955823599967</v>
+        <v>16.86212562021397</v>
       </c>
       <c r="D19">
-        <v>9.434566577014355</v>
+        <v>3.901984885187001</v>
       </c>
       <c r="E19">
-        <v>6.435470419511204</v>
+        <v>6.811165973478444</v>
       </c>
       <c r="F19">
-        <v>74.60234460772801</v>
+        <v>35.84859284456524</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.456405119636569</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.65213203630241</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.034724966410996</v>
+        <v>6.415869037812147</v>
       </c>
       <c r="M19">
-        <v>15.15380840609891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.3779794107731</v>
+      </c>
+      <c r="N19">
+        <v>12.2210997931115</v>
+      </c>
+      <c r="O19">
+        <v>27.57028291340298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.53379618369141</v>
+        <v>28.62310475475401</v>
       </c>
       <c r="C20">
-        <v>13.27596101585614</v>
+        <v>17.17982368425166</v>
       </c>
       <c r="D20">
-        <v>9.582558173782154</v>
+        <v>3.862284686361947</v>
       </c>
       <c r="E20">
-        <v>6.485692835738671</v>
+        <v>6.806872077487845</v>
       </c>
       <c r="F20">
-        <v>76.00501052188072</v>
+        <v>36.40113867012626</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.553849414643057</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.07358424667979</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.210247077953358</v>
+        <v>6.454672434254865</v>
       </c>
       <c r="M20">
-        <v>15.48464087748042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.69473082056646</v>
+      </c>
+      <c r="N20">
+        <v>12.1157547662278</v>
+      </c>
+      <c r="O20">
+        <v>27.9382255259411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.19408515686352</v>
+        <v>30.52962883361323</v>
       </c>
       <c r="C21">
-        <v>14.25915751464533</v>
+        <v>18.21913352134883</v>
       </c>
       <c r="D21">
-        <v>10.07751440244539</v>
+        <v>3.728319487275317</v>
       </c>
       <c r="E21">
-        <v>6.658859814252155</v>
+        <v>6.79383161069012</v>
       </c>
       <c r="F21">
-        <v>80.66595880788734</v>
+        <v>38.26199652377492</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.884628019819379</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.46614520269457</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.789131009574248</v>
+        <v>6.588851806731536</v>
       </c>
       <c r="M21">
-        <v>16.57634565313786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.72883013325439</v>
+      </c>
+      <c r="N21">
+        <v>11.76390387370688</v>
+      </c>
+      <c r="O21">
+        <v>29.18970549463778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.26149570391257</v>
+        <v>31.7366033580466</v>
       </c>
       <c r="C22">
-        <v>14.894599825876</v>
+        <v>18.87811261690638</v>
       </c>
       <c r="D22">
-        <v>10.40007227246958</v>
+        <v>3.640108664061867</v>
       </c>
       <c r="E22">
-        <v>6.775641511731964</v>
+        <v>6.786424183999927</v>
       </c>
       <c r="F22">
-        <v>83.67987943477624</v>
+        <v>39.48173191033854</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.10385239592537</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.36155299674643</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.160413658054429</v>
+        <v>6.679451945698778</v>
       </c>
       <c r="M22">
-        <v>17.2770639087973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.38296984215095</v>
+      </c>
+      <c r="N22">
+        <v>11.53529932976978</v>
+      </c>
+      <c r="O22">
+        <v>30.0193213369694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.693199110949</v>
+        <v>31.0959042925144</v>
       </c>
       <c r="C23">
-        <v>14.55594228178359</v>
+        <v>18.52821030247077</v>
       </c>
       <c r="D23">
-        <v>10.22794521501248</v>
+        <v>3.687263811661353</v>
       </c>
       <c r="E23">
-        <v>6.712960564706923</v>
+        <v>6.790269901774942</v>
       </c>
       <c r="F23">
-        <v>82.07378014283259</v>
+        <v>38.83037716020405</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.986531548939233</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.88480850974914</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.962826062517145</v>
+        <v>6.630825990219035</v>
       </c>
       <c r="M23">
-        <v>16.90410476400785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.03577773509128</v>
+      </c>
+      <c r="N23">
+        <v>11.65719966617961</v>
+      </c>
+      <c r="O23">
+        <v>29.57543785976301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.50631608939774</v>
+        <v>28.591265933574</v>
       </c>
       <c r="C24">
-        <v>13.25973705054176</v>
+        <v>17.16248457764158</v>
       </c>
       <c r="D24">
-        <v>9.574441443237692</v>
+        <v>3.86446645953506</v>
       </c>
       <c r="E24">
-        <v>6.482918898169995</v>
+        <v>6.807102853388786</v>
       </c>
       <c r="F24">
-        <v>75.92819162980315</v>
+        <v>36.37077917996038</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.548486679557811</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.05053482130264</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.20065145402204</v>
+        <v>6.452527379920051</v>
       </c>
       <c r="M24">
-        <v>15.46655250474377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.67745158680361</v>
+      </c>
+      <c r="N24">
+        <v>12.12153139440889</v>
+      </c>
+      <c r="O24">
+        <v>27.91796303507078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.05271127987299</v>
+        <v>25.71408753749274</v>
       </c>
       <c r="C25">
-        <v>11.81683419688334</v>
+        <v>15.59813774669678</v>
       </c>
       <c r="D25">
-        <v>8.861022497605067</v>
+        <v>4.05420148165345</v>
       </c>
       <c r="E25">
-        <v>6.248430876336303</v>
+        <v>6.8295471992202</v>
       </c>
       <c r="F25">
-        <v>69.12350751936744</v>
+        <v>33.73213991050357</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.085960458451677</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.99186807701526</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.487440768697427</v>
+        <v>6.272259279611569</v>
       </c>
       <c r="M25">
-        <v>13.84874341802254</v>
+        <v>14.38590481215298</v>
+      </c>
+      <c r="N25">
+        <v>12.62955450781402</v>
+      </c>
+      <c r="O25">
+        <v>26.17877683500047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.43697525569314</v>
+        <v>11.98564820970798</v>
       </c>
       <c r="C2">
-        <v>14.36403568215495</v>
+        <v>7.555005136628512</v>
       </c>
       <c r="D2">
-        <v>4.194103126691228</v>
+        <v>7.056450019912316</v>
       </c>
       <c r="E2">
-        <v>6.8493097045064</v>
+        <v>6.367472934001572</v>
       </c>
       <c r="F2">
-        <v>31.80422295674776</v>
+        <v>42.22653187799188</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>31.80149279720781</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.73409376465801</v>
       </c>
       <c r="L2">
-        <v>6.149495694231925</v>
+        <v>6.693305611159256</v>
       </c>
       <c r="M2">
-        <v>13.5131937217339</v>
+        <v>9.733712207466544</v>
       </c>
       <c r="N2">
-        <v>13.01136362414289</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.94021472179734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.88763491735453</v>
+        <v>11.299284195176</v>
       </c>
       <c r="C3">
-        <v>13.47498055451011</v>
+        <v>7.06177355112751</v>
       </c>
       <c r="D3">
-        <v>4.289657677147905</v>
+        <v>7.059873505305974</v>
       </c>
       <c r="E3">
-        <v>6.864542374980045</v>
+        <v>6.36318844843318</v>
       </c>
       <c r="F3">
-        <v>30.51040423200342</v>
+        <v>40.79981435817172</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31.03942932568475</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.989753542312044</v>
       </c>
       <c r="L3">
-        <v>6.072350033149857</v>
+        <v>6.609070179714877</v>
       </c>
       <c r="M3">
-        <v>12.90952577199741</v>
+        <v>9.501047144849526</v>
       </c>
       <c r="N3">
-        <v>13.27573415635303</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>24.12817007727293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.9155422792101</v>
+        <v>10.86661903954311</v>
       </c>
       <c r="C4">
-        <v>12.90283057355104</v>
+        <v>6.744251337551803</v>
       </c>
       <c r="D4">
-        <v>4.348876762129656</v>
+        <v>7.061894522418467</v>
       </c>
       <c r="E4">
-        <v>6.874753153155854</v>
+        <v>6.362260963620176</v>
       </c>
       <c r="F4">
-        <v>29.72400623007619</v>
+        <v>39.92152322885149</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30.57618022355328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.508703084559595</v>
       </c>
       <c r="L4">
-        <v>6.027916766502023</v>
+        <v>6.560239989264726</v>
       </c>
       <c r="M4">
-        <v>12.53385815765916</v>
+        <v>9.3622791895619</v>
       </c>
       <c r="N4">
-        <v>13.44107565805308</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.64366018371917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.50967044848652</v>
+        <v>10.68767888091969</v>
       </c>
       <c r="C5">
-        <v>12.66305146733605</v>
+        <v>6.61113524994521</v>
       </c>
       <c r="D5">
-        <v>4.37317168444086</v>
+        <v>7.062697846994174</v>
       </c>
       <c r="E5">
-        <v>6.879123340568473</v>
+        <v>6.36230255036017</v>
       </c>
       <c r="F5">
-        <v>29.40587194945673</v>
+        <v>39.56337121246447</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30.38867151184752</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.306557752160623</v>
       </c>
       <c r="L5">
-        <v>6.01054043091499</v>
+        <v>6.541064597388976</v>
       </c>
       <c r="M5">
-        <v>12.37969695813404</v>
+        <v>9.306807533788094</v>
       </c>
       <c r="N5">
-        <v>13.50924712223904</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>23.44986892608604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.44169326704941</v>
+        <v>10.65781416436015</v>
       </c>
       <c r="C6">
-        <v>12.62283616505877</v>
+        <v>6.588805744398936</v>
       </c>
       <c r="D6">
-        <v>4.377216355202214</v>
+        <v>7.062830017416045</v>
       </c>
       <c r="E6">
-        <v>6.879861466497925</v>
+        <v>6.362334545635044</v>
       </c>
       <c r="F6">
-        <v>29.35319662631677</v>
+        <v>39.5038961425631</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30.35761542682796</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.272620387770099</v>
       </c>
       <c r="L6">
-        <v>6.007699003164518</v>
+        <v>6.537924103570091</v>
       </c>
       <c r="M6">
-        <v>12.35403981274134</v>
+        <v>9.29766301301497</v>
       </c>
       <c r="N6">
-        <v>13.52061586219632</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.4179137604183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.91010773078411</v>
+        <v>10.86421612332284</v>
       </c>
       <c r="C7">
-        <v>12.8996236556617</v>
+        <v>6.742471200398911</v>
       </c>
       <c r="D7">
-        <v>4.349203721766861</v>
+        <v>7.06190543823578</v>
       </c>
       <c r="E7">
-        <v>6.874811251994019</v>
+        <v>6.362259837066355</v>
       </c>
       <c r="F7">
-        <v>29.71970588392204</v>
+        <v>39.91669357811239</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>30.57364614458794</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.506001728278264</v>
       </c>
       <c r="L7">
-        <v>6.0276794751508</v>
+        <v>6.559978459881243</v>
       </c>
       <c r="M7">
-        <v>12.5317831637178</v>
+        <v>9.361526652120864</v>
       </c>
       <c r="N7">
-        <v>13.44199178429427</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>23.64103171992445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.89124391782194</v>
+        <v>11.75142734004221</v>
       </c>
       <c r="C8">
-        <v>14.06292358311709</v>
+        <v>7.387962742056238</v>
       </c>
       <c r="D8">
-        <v>4.226952058561669</v>
+        <v>7.057647340158835</v>
       </c>
       <c r="E8">
-        <v>6.854379729262268</v>
+        <v>6.365636775146491</v>
       </c>
       <c r="F8">
-        <v>31.35662666978507</v>
+        <v>41.73526104058016</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>31.5378218379103</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.4823861231174</v>
       </c>
       <c r="L8">
-        <v>6.122282533099559</v>
+        <v>6.663659293547251</v>
       </c>
       <c r="M8">
-        <v>13.30619222751877</v>
+        <v>9.652669844688488</v>
       </c>
       <c r="N8">
-        <v>13.10191375857545</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.65735946276209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.70744981800664</v>
+        <v>13.54909329820306</v>
       </c>
       <c r="C9">
-        <v>16.13764936210763</v>
+        <v>8.539204836452114</v>
       </c>
       <c r="D9">
-        <v>3.990345907571645</v>
+        <v>7.04864562637515</v>
       </c>
       <c r="E9">
-        <v>6.821457094078879</v>
+        <v>6.386186920145041</v>
       </c>
       <c r="F9">
-        <v>34.61896462801362</v>
+        <v>45.27087099336315</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.46181197770971</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.20995865292494</v>
       </c>
       <c r="L9">
-        <v>6.331410927762598</v>
+        <v>6.890063509637215</v>
       </c>
       <c r="M9">
-        <v>14.77842229859793</v>
+        <v>10.25397486195512</v>
       </c>
       <c r="N9">
-        <v>12.45732705415922</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>26.75818694351207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.28449003826972</v>
+        <v>14.87248424023234</v>
       </c>
       <c r="C10">
-        <v>17.54013816299101</v>
+        <v>9.318341700664773</v>
       </c>
       <c r="D10">
-        <v>3.816552305464853</v>
+        <v>7.041617090264856</v>
       </c>
       <c r="E10">
-        <v>6.802172160209762</v>
+        <v>6.410384857765876</v>
       </c>
       <c r="F10">
-        <v>37.03721879193163</v>
+        <v>47.83655353406518</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.89170942093772</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.37033664625695</v>
       </c>
       <c r="L10">
-        <v>6.499951105960336</v>
+        <v>7.070709718718184</v>
       </c>
       <c r="M10">
-        <v>16.0535938201553</v>
+        <v>10.71177263877698</v>
       </c>
       <c r="N10">
-        <v>11.99501153675376</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>28.36394341030116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.40839243140985</v>
+        <v>15.4493880760861</v>
       </c>
       <c r="C11">
-        <v>18.15298419286772</v>
+        <v>9.659153313454979</v>
       </c>
       <c r="D11">
-        <v>3.737033647886332</v>
+        <v>7.038324109695715</v>
       </c>
       <c r="E11">
-        <v>6.794613424846196</v>
+        <v>6.423513661011829</v>
       </c>
       <c r="F11">
-        <v>38.14121795299587</v>
+        <v>48.99506397006462</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.54529322116925</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.87583139885921</v>
       </c>
       <c r="L11">
-        <v>6.579989373100202</v>
+        <v>7.156062073770242</v>
       </c>
       <c r="M11">
-        <v>16.66310335711939</v>
+        <v>10.92309968355087</v>
       </c>
       <c r="N11">
-        <v>11.78662028608415</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>29.10793871504402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.82726757076474</v>
+        <v>15.66434601705211</v>
       </c>
       <c r="C12">
-        <v>18.38156535792677</v>
+        <v>9.786330880316919</v>
       </c>
       <c r="D12">
-        <v>3.706812924274803</v>
+        <v>7.037062844427858</v>
       </c>
       <c r="E12">
-        <v>6.791940891939855</v>
+        <v>6.428803180808139</v>
       </c>
       <c r="F12">
-        <v>38.55987539285366</v>
+        <v>49.43244671405529</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.79322560038714</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.064145104358</v>
       </c>
       <c r="L12">
-        <v>6.610795303323096</v>
+        <v>7.188846270105853</v>
       </c>
       <c r="M12">
-        <v>16.89017453012959</v>
+        <v>11.00354066062614</v>
       </c>
       <c r="N12">
-        <v>11.70794186644406</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.3916702003479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.73735016051749</v>
+        <v>15.61820491611665</v>
       </c>
       <c r="C13">
-        <v>18.33248930281913</v>
+        <v>9.759023198069947</v>
       </c>
       <c r="D13">
-        <v>3.713327060721245</v>
+        <v>7.037335125237367</v>
       </c>
       <c r="E13">
-        <v>6.792507758693414</v>
+        <v>6.427649631063471</v>
       </c>
       <c r="F13">
-        <v>38.46968203057401</v>
+        <v>49.33830784060122</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.73980954358048</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.02372467110196</v>
       </c>
       <c r="L13">
-        <v>6.604138347246058</v>
+        <v>7.181764882865796</v>
       </c>
       <c r="M13">
-        <v>16.84143444389937</v>
+        <v>10.98619806468808</v>
       </c>
       <c r="N13">
-        <v>11.72487687441671</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.3304733584248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.44298678960042</v>
+        <v>15.46714233565049</v>
       </c>
       <c r="C14">
-        <v>18.17185885304839</v>
+        <v>9.669653491926015</v>
       </c>
       <c r="D14">
-        <v>3.734549810151019</v>
+        <v>7.038220634301727</v>
       </c>
       <c r="E14">
-        <v>6.794389653899543</v>
+        <v>6.423942383473928</v>
       </c>
       <c r="F14">
-        <v>38.17564869486949</v>
+        <v>49.03107440600248</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.56568204649425</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.89138566864344</v>
       </c>
       <c r="L14">
-        <v>6.582513747518562</v>
+        <v>7.15874992292864</v>
       </c>
       <c r="M14">
-        <v>16.681858656517</v>
+        <v>10.92970938797383</v>
       </c>
       <c r="N14">
-        <v>11.7801428917678</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.13124097599453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.26181288876839</v>
+        <v>15.37415937595977</v>
       </c>
       <c r="C15">
-        <v>18.07301764172605</v>
+        <v>9.614669569543816</v>
       </c>
       <c r="D15">
-        <v>3.747533854782978</v>
+        <v>7.038761156541716</v>
       </c>
       <c r="E15">
-        <v>6.795567580987193</v>
+        <v>6.421713392210811</v>
       </c>
       <c r="F15">
-        <v>37.99562496310034</v>
+        <v>48.84271182797045</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.45908053563432</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.8099231213932</v>
       </c>
       <c r="L15">
-        <v>6.569333232543731</v>
+        <v>7.144713135680759</v>
       </c>
       <c r="M15">
-        <v>16.58363174204244</v>
+        <v>10.89516201320601</v>
       </c>
       <c r="N15">
-        <v>11.81402429619472</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>29.00946783592626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.21008600397076</v>
+        <v>14.83428583975715</v>
       </c>
       <c r="C16">
-        <v>17.4995914387929</v>
+        <v>9.295801247772594</v>
       </c>
       <c r="D16">
-        <v>3.821736244358968</v>
+        <v>7.041830326226456</v>
       </c>
       <c r="E16">
-        <v>6.802691815779009</v>
+        <v>6.409570621791199</v>
       </c>
       <c r="F16">
-        <v>36.96514965615513</v>
+        <v>47.7606603796592</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.8490571280046</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.33686050060179</v>
       </c>
       <c r="L16">
-        <v>6.494789228541693</v>
+        <v>7.065196147012729</v>
       </c>
       <c r="M16">
-        <v>16.01322986491421</v>
+        <v>10.69802133056503</v>
       </c>
       <c r="N16">
-        <v>12.00866547947662</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>28.31559698498931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.55264774672713</v>
+        <v>14.49673185591396</v>
       </c>
       <c r="C17">
-        <v>17.14145427918175</v>
+        <v>9.0967499113203</v>
       </c>
       <c r="D17">
-        <v>3.867110360454834</v>
+        <v>7.043688313713541</v>
       </c>
       <c r="E17">
-        <v>6.807383316750655</v>
+        <v>6.402673552768993</v>
       </c>
       <c r="F17">
-        <v>36.33398787399242</v>
+        <v>47.0945714533799</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.47560786995295</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.04099869028824</v>
       </c>
       <c r="L17">
-        <v>6.449929884181346</v>
+        <v>7.017232344331934</v>
       </c>
       <c r="M17">
-        <v>15.65649265351311</v>
+        <v>10.57784763424625</v>
       </c>
       <c r="N17">
-        <v>12.12853357298545</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.8934148894473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.16993437274277</v>
+        <v>14.3002087153435</v>
       </c>
       <c r="C18">
-        <v>16.93308689773561</v>
+        <v>8.980973479103342</v>
       </c>
       <c r="D18">
-        <v>3.893167943034244</v>
+        <v>7.044748011765897</v>
       </c>
       <c r="E18">
-        <v>6.810194972050869</v>
+        <v>6.398905353161837</v>
       </c>
       <c r="F18">
-        <v>35.9713225118988</v>
+        <v>46.71064339188105</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.26110238306379</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.86871439841086</v>
       </c>
       <c r="L18">
-        <v>6.424444124026499</v>
+        <v>6.989943232690591</v>
       </c>
       <c r="M18">
-        <v>15.44875716158347</v>
+        <v>10.50901712514776</v>
       </c>
       <c r="N18">
-        <v>12.19766155469863</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>27.65185424670341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.03956213732861</v>
+        <v>14.23325903811531</v>
       </c>
       <c r="C19">
-        <v>16.86212562021397</v>
+        <v>8.941550222974048</v>
       </c>
       <c r="D19">
-        <v>3.901984885187001</v>
+        <v>7.045105281796047</v>
       </c>
       <c r="E19">
-        <v>6.811165973478444</v>
+        <v>6.39766327438192</v>
       </c>
       <c r="F19">
-        <v>35.84859284456524</v>
+        <v>46.580515965336</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.18852560969012</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.81001588242708</v>
       </c>
       <c r="L19">
-        <v>6.415869037812147</v>
+        <v>6.980754694512058</v>
       </c>
       <c r="M19">
-        <v>15.3779794107731</v>
+        <v>10.48576307860821</v>
       </c>
       <c r="N19">
-        <v>12.2210997931115</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>27.57028291340298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.62310475475401</v>
+        <v>14.53290970076258</v>
       </c>
       <c r="C20">
-        <v>17.17982368425166</v>
+        <v>9.118071965137787</v>
       </c>
       <c r="D20">
-        <v>3.862284686361947</v>
+        <v>7.043491459376424</v>
       </c>
       <c r="E20">
-        <v>6.806872077487845</v>
+        <v>6.403387090899207</v>
       </c>
       <c r="F20">
-        <v>36.40113867012626</v>
+        <v>47.16556248507659</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.51533207468052</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.07271154220302</v>
       </c>
       <c r="L20">
-        <v>6.454672434254865</v>
+        <v>7.022307249589166</v>
       </c>
       <c r="M20">
-        <v>15.69473082056646</v>
+        <v>10.59061050879096</v>
       </c>
       <c r="N20">
-        <v>12.1157547662278</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.9382255259411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.52962883361323</v>
+        <v>15.51160722238767</v>
       </c>
       <c r="C21">
-        <v>18.21913352134883</v>
+        <v>9.6959539030257</v>
       </c>
       <c r="D21">
-        <v>3.728319487275317</v>
+        <v>7.037960931198478</v>
       </c>
       <c r="E21">
-        <v>6.79383161069012</v>
+        <v>6.425022555273366</v>
       </c>
       <c r="F21">
-        <v>38.26199652377492</v>
+        <v>49.12135247024671</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.61681570302469</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.9303402176418</v>
       </c>
       <c r="L21">
-        <v>6.588851806731536</v>
+        <v>7.165497343261802</v>
       </c>
       <c r="M21">
-        <v>16.72883013325439</v>
+        <v>10.94629035014619</v>
       </c>
       <c r="N21">
-        <v>11.76390387370688</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.18970549463778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.7366033580466</v>
+        <v>16.1308838549121</v>
       </c>
       <c r="C22">
-        <v>18.87811261690638</v>
+        <v>10.06271604399552</v>
       </c>
       <c r="D22">
-        <v>3.640108664061867</v>
+        <v>7.03426283275757</v>
       </c>
       <c r="E22">
-        <v>6.786424183999927</v>
+        <v>6.441022491954064</v>
       </c>
       <c r="F22">
-        <v>39.48173191033854</v>
+        <v>50.39188665133063</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.33924391577379</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.47280307372563</v>
       </c>
       <c r="L22">
-        <v>6.679451945698778</v>
+        <v>7.261784437072312</v>
       </c>
       <c r="M22">
-        <v>17.38296984215095</v>
+        <v>11.18116754174897</v>
       </c>
       <c r="N22">
-        <v>11.53529932976978</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>30.0193213369694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.0959042925144</v>
+        <v>15.80218796460621</v>
       </c>
       <c r="C23">
-        <v>18.52821030247077</v>
+        <v>9.867938717001698</v>
       </c>
       <c r="D23">
-        <v>3.687263811661353</v>
+        <v>7.036244424677546</v>
       </c>
       <c r="E23">
-        <v>6.790269901774942</v>
+        <v>6.432308289259499</v>
       </c>
       <c r="F23">
-        <v>38.83037716020405</v>
+        <v>49.71449248990231</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.95343504753544</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.18489281611569</v>
       </c>
       <c r="L23">
-        <v>6.630825990219035</v>
+        <v>7.21014403282796</v>
       </c>
       <c r="M23">
-        <v>17.03577773509128</v>
+        <v>11.05559376345311</v>
       </c>
       <c r="N23">
-        <v>11.65719966617961</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>29.57543785976301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.591265933574</v>
+        <v>14.51656136393155</v>
       </c>
       <c r="C24">
-        <v>17.16248457764158</v>
+        <v>9.10843644162232</v>
       </c>
       <c r="D24">
-        <v>3.86446645953506</v>
+        <v>7.043580483609928</v>
       </c>
       <c r="E24">
-        <v>6.807102853388786</v>
+        <v>6.403063887608871</v>
       </c>
       <c r="F24">
-        <v>36.37077917996038</v>
+        <v>47.13347049991792</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.49737215149096</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.05838098954175</v>
       </c>
       <c r="L24">
-        <v>6.452527379920051</v>
+        <v>7.020011994810131</v>
       </c>
       <c r="M24">
-        <v>15.67745158680361</v>
+        <v>10.58483960455225</v>
       </c>
       <c r="N24">
-        <v>12.12153139440889</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.91796303507078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.71408753749274</v>
+        <v>13.03882267395625</v>
       </c>
       <c r="C25">
-        <v>15.59813774669678</v>
+        <v>8.239730448153647</v>
       </c>
       <c r="D25">
-        <v>4.05420148165345</v>
+        <v>7.051152157630453</v>
       </c>
       <c r="E25">
-        <v>6.8295471992202</v>
+        <v>6.379075784788353</v>
       </c>
       <c r="F25">
-        <v>33.73213991050357</v>
+        <v>44.31922550836192</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.93822556182715</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.76212112148124</v>
       </c>
       <c r="L25">
-        <v>6.272259279611569</v>
+        <v>6.826320655448288</v>
       </c>
       <c r="M25">
-        <v>14.38590481215298</v>
+        <v>10.08832883831548</v>
       </c>
       <c r="N25">
-        <v>12.62955450781402</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>26.17877683500047</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.98564820970798</v>
+        <v>14.15440837047059</v>
       </c>
       <c r="C2">
-        <v>7.555005136628512</v>
+        <v>4.763913061872104</v>
       </c>
       <c r="D2">
-        <v>7.056450019912316</v>
+        <v>9.106701891442407</v>
       </c>
       <c r="E2">
-        <v>6.367472934001572</v>
+        <v>10.42840865307153</v>
       </c>
       <c r="F2">
-        <v>42.22653187799188</v>
+        <v>45.3110708462298</v>
       </c>
       <c r="I2">
-        <v>31.80149279720781</v>
+        <v>37.03918245434825</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.73409376465801</v>
+        <v>12.59491124901355</v>
       </c>
       <c r="L2">
-        <v>6.693305611159256</v>
+        <v>10.54869075530701</v>
       </c>
       <c r="M2">
-        <v>9.733712207466544</v>
+        <v>15.46849324139424</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.299284195176</v>
+        <v>14.0791922704248</v>
       </c>
       <c r="C3">
-        <v>7.06177355112751</v>
+        <v>4.521650149324073</v>
       </c>
       <c r="D3">
-        <v>7.059873505305974</v>
+        <v>9.096251255057926</v>
       </c>
       <c r="E3">
-        <v>6.36318844843318</v>
+        <v>10.44012375205457</v>
       </c>
       <c r="F3">
-        <v>40.79981435817172</v>
+        <v>44.98296002507977</v>
       </c>
       <c r="I3">
-        <v>31.03942932568475</v>
+        <v>36.8789051741067</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.989753542312044</v>
+        <v>12.53844627163413</v>
       </c>
       <c r="L3">
-        <v>6.609070179714877</v>
+        <v>10.5569032204261</v>
       </c>
       <c r="M3">
-        <v>9.501047144849526</v>
+        <v>15.4806164093753</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86661903954311</v>
+        <v>14.03759974515391</v>
       </c>
       <c r="C4">
-        <v>6.744251337551803</v>
+        <v>4.365059952006747</v>
       </c>
       <c r="D4">
-        <v>7.061894522418467</v>
+        <v>9.089571111249414</v>
       </c>
       <c r="E4">
-        <v>6.362260963620176</v>
+        <v>10.44809934928632</v>
       </c>
       <c r="F4">
-        <v>39.92152322885149</v>
+        <v>44.78664169360824</v>
       </c>
       <c r="I4">
-        <v>30.57618022355328</v>
+        <v>36.78399229748963</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.508703084559595</v>
+        <v>12.50763355593765</v>
       </c>
       <c r="L4">
-        <v>6.560239989264726</v>
+        <v>10.56341049827718</v>
       </c>
       <c r="M4">
-        <v>9.3622791895619</v>
+        <v>15.49112978020073</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68767888091969</v>
+        <v>14.0218222598864</v>
       </c>
       <c r="C5">
-        <v>6.61113524994521</v>
+        <v>4.299305600786987</v>
       </c>
       <c r="D5">
-        <v>7.062697846994174</v>
+        <v>9.086782373268077</v>
       </c>
       <c r="E5">
-        <v>6.36230255036017</v>
+        <v>10.45154654763921</v>
       </c>
       <c r="F5">
-        <v>39.56337121246447</v>
+        <v>44.70798604298087</v>
       </c>
       <c r="I5">
-        <v>30.38867151184752</v>
+        <v>36.74621056018929</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.306557752160623</v>
+        <v>12.4960588060891</v>
       </c>
       <c r="L5">
-        <v>6.541064597388976</v>
+        <v>10.56643086163664</v>
       </c>
       <c r="M5">
-        <v>9.306807533788094</v>
+        <v>15.49618636401402</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65781416436015</v>
+        <v>14.01927366673491</v>
       </c>
       <c r="C6">
-        <v>6.588805744398936</v>
+        <v>4.288270775520095</v>
       </c>
       <c r="D6">
-        <v>7.062830017416045</v>
+        <v>9.086315278974947</v>
       </c>
       <c r="E6">
-        <v>6.362334545635044</v>
+        <v>10.4521308645325</v>
       </c>
       <c r="F6">
-        <v>39.5038961425631</v>
+        <v>44.69500808917498</v>
       </c>
       <c r="I6">
-        <v>30.35761542682796</v>
+        <v>36.7399915077231</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.272620387770099</v>
+        <v>12.49419643437469</v>
       </c>
       <c r="L6">
-        <v>6.537924103570091</v>
+        <v>10.56695465912577</v>
       </c>
       <c r="M6">
-        <v>9.29766301301497</v>
+        <v>15.49707265752905</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86421612332284</v>
+        <v>14.03738219826472</v>
       </c>
       <c r="C7">
-        <v>6.742471200398911</v>
+        <v>4.364180988735125</v>
       </c>
       <c r="D7">
-        <v>7.06190543823578</v>
+        <v>9.089533771106124</v>
       </c>
       <c r="E7">
-        <v>6.362259837066355</v>
+        <v>10.44814504102365</v>
       </c>
       <c r="F7">
-        <v>39.91669357811239</v>
+        <v>44.78557540022165</v>
       </c>
       <c r="I7">
-        <v>30.57364614458794</v>
+        <v>36.78347911100388</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.506001728278264</v>
+        <v>12.50747346556257</v>
       </c>
       <c r="L7">
-        <v>6.559978459881243</v>
+        <v>10.5634497392368</v>
       </c>
       <c r="M7">
-        <v>9.361526652120864</v>
+        <v>15.49119484772509</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75142734004221</v>
+        <v>14.12753221161255</v>
       </c>
       <c r="C8">
-        <v>7.387962742056238</v>
+        <v>4.682023433956563</v>
       </c>
       <c r="D8">
-        <v>7.057647340158835</v>
+        <v>9.10315300927323</v>
       </c>
       <c r="E8">
-        <v>6.365636775146491</v>
+        <v>10.43228580670784</v>
       </c>
       <c r="F8">
-        <v>41.73526104058016</v>
+        <v>45.19690295623766</v>
       </c>
       <c r="I8">
-        <v>31.5378218379103</v>
+        <v>36.98320299637237</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.4823861231174</v>
+        <v>12.57464913939032</v>
       </c>
       <c r="L8">
-        <v>6.663659293547251</v>
+        <v>10.55121857141863</v>
       </c>
       <c r="M8">
-        <v>9.652669844688488</v>
+        <v>15.47203650666447</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54909329820306</v>
+        <v>14.33987600051756</v>
       </c>
       <c r="C9">
-        <v>8.539204836452114</v>
+        <v>5.242122731514793</v>
       </c>
       <c r="D9">
-        <v>7.04864562637515</v>
+        <v>9.127783482380663</v>
       </c>
       <c r="E9">
-        <v>6.386186920145041</v>
+        <v>10.40738069830967</v>
       </c>
       <c r="F9">
-        <v>45.27087099336315</v>
+        <v>46.04191804463395</v>
       </c>
       <c r="I9">
-        <v>33.46181197770971</v>
+        <v>37.40185415276847</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.20995865292494</v>
+        <v>12.73639499215225</v>
       </c>
       <c r="L9">
-        <v>6.890063509637215</v>
+        <v>10.53884257471802</v>
       </c>
       <c r="M9">
-        <v>10.25397486195512</v>
+        <v>15.45879720280748</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87248424023234</v>
+        <v>14.51627967081287</v>
       </c>
       <c r="C10">
-        <v>9.318341700664773</v>
+        <v>5.614117291717548</v>
       </c>
       <c r="D10">
-        <v>7.041617090264856</v>
+        <v>9.144632050779272</v>
       </c>
       <c r="E10">
-        <v>6.410384857765876</v>
+        <v>10.39284100955345</v>
       </c>
       <c r="F10">
-        <v>47.83655353406518</v>
+        <v>46.68281271699456</v>
       </c>
       <c r="I10">
-        <v>34.89170942093772</v>
+        <v>37.72481677942577</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.37033664625695</v>
+        <v>12.87264201442691</v>
       </c>
       <c r="L10">
-        <v>7.070709718718184</v>
+        <v>10.5368069972074</v>
       </c>
       <c r="M10">
-        <v>10.71177263877698</v>
+        <v>15.46385355267207</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4493880760861</v>
+        <v>14.60065147037846</v>
       </c>
       <c r="C11">
-        <v>9.659153313454979</v>
+        <v>5.774634069343588</v>
       </c>
       <c r="D11">
-        <v>7.038324109695715</v>
+        <v>9.15202997766033</v>
       </c>
       <c r="E11">
-        <v>6.423513661011829</v>
+        <v>10.3870385955089</v>
       </c>
       <c r="F11">
-        <v>48.99506397006462</v>
+        <v>46.97798147035282</v>
       </c>
       <c r="I11">
-        <v>35.54529322116925</v>
+        <v>37.87483179524324</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.87583139885921</v>
+        <v>12.93818980228964</v>
       </c>
       <c r="L11">
-        <v>7.156062073770242</v>
+        <v>10.53740751975712</v>
       </c>
       <c r="M11">
-        <v>10.92309968355087</v>
+        <v>15.46934778368549</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66434601705211</v>
+        <v>14.63316619133193</v>
       </c>
       <c r="C12">
-        <v>9.786330880316919</v>
+        <v>5.834158085481592</v>
       </c>
       <c r="D12">
-        <v>7.037062844427858</v>
+        <v>9.154793340403089</v>
       </c>
       <c r="E12">
-        <v>6.428803180808139</v>
+        <v>10.38495776642915</v>
       </c>
       <c r="F12">
-        <v>49.43244671405529</v>
+        <v>47.09021013130694</v>
       </c>
       <c r="I12">
-        <v>35.79322560038714</v>
+        <v>37.93206140280967</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.064145104358</v>
+        <v>12.96350435470608</v>
       </c>
       <c r="L12">
-        <v>7.188846270105853</v>
+        <v>10.53785377454323</v>
       </c>
       <c r="M12">
-        <v>11.00354066062614</v>
+        <v>15.4718857222854</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.61820491611665</v>
+        <v>14.62613889899451</v>
       </c>
       <c r="C13">
-        <v>9.759023198069947</v>
+        <v>5.821394680119434</v>
       </c>
       <c r="D13">
-        <v>7.037335125237367</v>
+        <v>9.154199889920042</v>
       </c>
       <c r="E13">
-        <v>6.427649631063471</v>
+        <v>10.38540073744474</v>
       </c>
       <c r="F13">
-        <v>49.33830784060122</v>
+        <v>47.06602052323456</v>
       </c>
       <c r="I13">
-        <v>35.73980954358048</v>
+        <v>37.91971758506336</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.02372467110196</v>
+        <v>12.95803081562084</v>
       </c>
       <c r="L13">
-        <v>7.181764882865796</v>
+        <v>10.53774794361824</v>
       </c>
       <c r="M13">
-        <v>10.98619806468808</v>
+        <v>15.47131882272749</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46714233565049</v>
+        <v>14.60331531911282</v>
       </c>
       <c r="C14">
-        <v>9.669653491926015</v>
+        <v>5.779556441998404</v>
       </c>
       <c r="D14">
-        <v>7.038220634301727</v>
+        <v>9.152258082706819</v>
       </c>
       <c r="E14">
-        <v>6.423942383473928</v>
+        <v>10.38686507303639</v>
       </c>
       <c r="F14">
-        <v>49.03107440600248</v>
+        <v>46.98720586009082</v>
       </c>
       <c r="I14">
-        <v>35.56568204649425</v>
+        <v>37.87953178447241</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.89138566864344</v>
+        <v>12.94026268330025</v>
       </c>
       <c r="L14">
-        <v>7.15874992292864</v>
+        <v>10.53743985141926</v>
       </c>
       <c r="M14">
-        <v>10.92970938797383</v>
+        <v>15.46954742659599</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37415937595977</v>
+        <v>14.58940793441197</v>
       </c>
       <c r="C15">
-        <v>9.614669569543816</v>
+        <v>5.753764988956625</v>
       </c>
       <c r="D15">
-        <v>7.038761156541716</v>
+        <v>9.1510637193532</v>
       </c>
       <c r="E15">
-        <v>6.421713392210811</v>
+        <v>10.38777717275207</v>
       </c>
       <c r="F15">
-        <v>48.84271182797045</v>
+        <v>46.93898683321471</v>
       </c>
       <c r="I15">
-        <v>35.45908053563432</v>
+        <v>37.854971097348</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.8099231213932</v>
+        <v>12.9294427828912</v>
       </c>
       <c r="L15">
-        <v>7.144713135680759</v>
+        <v>10.53727961569167</v>
       </c>
       <c r="M15">
-        <v>10.89516201320601</v>
+        <v>15.46852189954231</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.83428583975715</v>
+        <v>14.51084639430332</v>
       </c>
       <c r="C16">
-        <v>9.295801247772594</v>
+        <v>5.603451196724584</v>
       </c>
       <c r="D16">
-        <v>7.041830326226456</v>
+        <v>9.144143237162243</v>
       </c>
       <c r="E16">
-        <v>6.409570621791199</v>
+        <v>10.39323651921293</v>
       </c>
       <c r="F16">
-        <v>47.7606603796592</v>
+        <v>46.66358999514335</v>
       </c>
       <c r="I16">
-        <v>34.8490571280046</v>
+        <v>37.71507330785375</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.33686050060179</v>
+        <v>12.86842842138652</v>
       </c>
       <c r="L16">
-        <v>7.065196147012729</v>
+        <v>10.53679841447851</v>
       </c>
       <c r="M16">
-        <v>10.69802133056503</v>
+        <v>15.46355860806073</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.49673185591396</v>
+        <v>14.46368822684994</v>
       </c>
       <c r="C17">
-        <v>9.0967499113203</v>
+        <v>5.509002152256747</v>
       </c>
       <c r="D17">
-        <v>7.043688313713541</v>
+        <v>9.139829657106862</v>
       </c>
       <c r="E17">
-        <v>6.402673552768993</v>
+        <v>10.39679334360048</v>
       </c>
       <c r="F17">
-        <v>47.0945714533799</v>
+        <v>46.49552391494291</v>
       </c>
       <c r="I17">
-        <v>34.47560786995295</v>
+        <v>37.63002763727689</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.04099869028824</v>
+        <v>12.83189804694166</v>
       </c>
       <c r="L17">
-        <v>7.017232344331934</v>
+        <v>10.53689374714501</v>
       </c>
       <c r="M17">
-        <v>10.57784763424625</v>
+        <v>15.46133060240832</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.3002087153435</v>
+        <v>14.43695411838067</v>
       </c>
       <c r="C18">
-        <v>8.980973479103342</v>
+        <v>5.453858497625371</v>
       </c>
       <c r="D18">
-        <v>7.044748011765897</v>
+        <v>9.1373234936208</v>
       </c>
       <c r="E18">
-        <v>6.398905353161837</v>
+        <v>10.39891556088552</v>
       </c>
       <c r="F18">
-        <v>46.71064339188105</v>
+        <v>46.39920175177519</v>
       </c>
       <c r="I18">
-        <v>34.26110238306379</v>
+        <v>37.58140463179215</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.86871439841086</v>
+        <v>12.81122388059492</v>
       </c>
       <c r="L18">
-        <v>6.989943232690591</v>
+        <v>10.53709230795124</v>
       </c>
       <c r="M18">
-        <v>10.50901712514776</v>
+        <v>15.46034988691204</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.23325903811531</v>
+        <v>14.42797023529335</v>
       </c>
       <c r="C19">
-        <v>8.941550222974048</v>
+        <v>5.435047423907307</v>
       </c>
       <c r="D19">
-        <v>7.045105281796047</v>
+        <v>9.136470629673358</v>
       </c>
       <c r="E19">
-        <v>6.39766327438192</v>
+        <v>10.39964724282501</v>
       </c>
       <c r="F19">
-        <v>46.580515965336</v>
+        <v>46.36664998123812</v>
       </c>
       <c r="I19">
-        <v>34.18852560969012</v>
+        <v>37.56499273912066</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.81001588242708</v>
+        <v>12.80428246278393</v>
       </c>
       <c r="L19">
-        <v>6.980754694512058</v>
+        <v>10.53718424139291</v>
       </c>
       <c r="M19">
-        <v>10.48576307860821</v>
+        <v>15.46006954513192</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53290970076258</v>
+        <v>14.46866812916586</v>
       </c>
       <c r="C20">
-        <v>9.118071965137787</v>
+        <v>5.519141252245694</v>
       </c>
       <c r="D20">
-        <v>7.043491459376424</v>
+        <v>9.140291441583443</v>
       </c>
       <c r="E20">
-        <v>6.403387090899207</v>
+        <v>10.39640680601319</v>
       </c>
       <c r="F20">
-        <v>47.16556248507659</v>
+        <v>46.51337960733571</v>
       </c>
       <c r="I20">
-        <v>34.51533207468052</v>
+        <v>37.63905073439256</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.07271154220302</v>
+        <v>12.83575201754995</v>
       </c>
       <c r="L20">
-        <v>7.022307249589166</v>
+        <v>10.53686872805991</v>
       </c>
       <c r="M20">
-        <v>10.59061050879096</v>
+        <v>15.46153666136146</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.51160722238767</v>
+        <v>14.61000405549243</v>
       </c>
       <c r="C21">
-        <v>9.6959539030257</v>
+        <v>5.791879603431341</v>
       </c>
       <c r="D21">
-        <v>7.037960931198478</v>
+        <v>9.152829469746044</v>
       </c>
       <c r="E21">
-        <v>6.425022555273366</v>
+        <v>10.38643180510189</v>
       </c>
       <c r="F21">
-        <v>49.12135247024671</v>
+        <v>47.01034382974397</v>
       </c>
       <c r="I21">
-        <v>35.61681570302469</v>
+        <v>37.89132405971898</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.9303402176418</v>
+        <v>12.94546839880298</v>
       </c>
       <c r="L21">
-        <v>7.165497343261802</v>
+        <v>10.53752441173486</v>
       </c>
       <c r="M21">
-        <v>10.94629035014619</v>
+        <v>15.47005533177784</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.1308838549121</v>
+        <v>14.70565438827419</v>
       </c>
       <c r="C22">
-        <v>10.06271604399552</v>
+        <v>5.96278213881088</v>
       </c>
       <c r="D22">
-        <v>7.03426283275757</v>
+        <v>9.160802003894872</v>
       </c>
       <c r="E22">
-        <v>6.441022491954064</v>
+        <v>10.38059099726842</v>
       </c>
       <c r="F22">
-        <v>50.39188665133063</v>
+        <v>47.33775756086185</v>
       </c>
       <c r="I22">
-        <v>36.33924391577379</v>
+        <v>38.05864871053942</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.47280307372563</v>
+        <v>13.02003815903166</v>
       </c>
       <c r="L22">
-        <v>7.261784437072312</v>
+        <v>10.53922819678813</v>
       </c>
       <c r="M22">
-        <v>11.18116754174897</v>
+        <v>15.4782877131476</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80218796460621</v>
+        <v>14.65431356334513</v>
       </c>
       <c r="C23">
-        <v>9.867938717001698</v>
+        <v>5.872242737330566</v>
       </c>
       <c r="D23">
-        <v>7.036244424677546</v>
+        <v>9.156567121122469</v>
       </c>
       <c r="E23">
-        <v>6.432308289259499</v>
+        <v>10.38364637400682</v>
       </c>
       <c r="F23">
-        <v>49.71449248990231</v>
+        <v>47.16279314071596</v>
       </c>
       <c r="I23">
-        <v>35.95343504753544</v>
+        <v>37.96912815309087</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.18489281611569</v>
+        <v>12.97998372391875</v>
       </c>
       <c r="L23">
-        <v>7.21014403282796</v>
+        <v>10.53820240897092</v>
       </c>
       <c r="M23">
-        <v>11.05559376345311</v>
+        <v>15.47365080236748</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.51656136393155</v>
+        <v>14.4664155365584</v>
       </c>
       <c r="C24">
-        <v>9.10843644162232</v>
+        <v>5.514559992282314</v>
       </c>
       <c r="D24">
-        <v>7.043580483609928</v>
+        <v>9.140082750533201</v>
       </c>
       <c r="E24">
-        <v>6.403063887608871</v>
+        <v>10.39658131870152</v>
       </c>
       <c r="F24">
-        <v>47.13347049991792</v>
+        <v>46.50530610530262</v>
       </c>
       <c r="I24">
-        <v>34.49737215149096</v>
+        <v>37.63497054660503</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.05838098954175</v>
+        <v>12.8340086153907</v>
       </c>
       <c r="L24">
-        <v>7.020011994810131</v>
+        <v>10.53687959137272</v>
       </c>
       <c r="M24">
-        <v>10.58483960455225</v>
+        <v>15.46144256690057</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.03882267395625</v>
+        <v>14.27875025774953</v>
       </c>
       <c r="C25">
-        <v>8.239730448153647</v>
+        <v>5.097483332068819</v>
       </c>
       <c r="D25">
-        <v>7.051152157630453</v>
+        <v>9.121340682534164</v>
       </c>
       <c r="E25">
-        <v>6.379075784788353</v>
+        <v>10.41345687919228</v>
       </c>
       <c r="F25">
-        <v>44.31922550836192</v>
+        <v>45.80954633866862</v>
       </c>
       <c r="I25">
-        <v>32.93822556182715</v>
+        <v>37.2858152377402</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.76212112148124</v>
+        <v>12.68951132431454</v>
       </c>
       <c r="L25">
-        <v>6.826320655448288</v>
+        <v>10.5409495322952</v>
       </c>
       <c r="M25">
-        <v>10.08832883831548</v>
+        <v>15.45977802025113</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15440837047059</v>
+        <v>11.98564820970796</v>
       </c>
       <c r="C2">
-        <v>4.763913061872104</v>
+        <v>7.555005136628513</v>
       </c>
       <c r="D2">
-        <v>9.106701891442407</v>
+        <v>7.056450019912197</v>
       </c>
       <c r="E2">
-        <v>10.42840865307153</v>
+        <v>6.367472934001574</v>
       </c>
       <c r="F2">
-        <v>45.3110708462298</v>
+        <v>42.22653187799198</v>
       </c>
       <c r="I2">
-        <v>37.03918245434825</v>
+        <v>31.8014927972079</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.59491124901355</v>
+        <v>10.73409376465798</v>
       </c>
       <c r="L2">
-        <v>10.54869075530701</v>
+        <v>6.69330561115925</v>
       </c>
       <c r="M2">
-        <v>15.46849324139424</v>
+        <v>9.733712207466539</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.0791922704248</v>
+        <v>11.29928419517599</v>
       </c>
       <c r="C3">
-        <v>4.521650149324073</v>
+        <v>7.061773551127604</v>
       </c>
       <c r="D3">
-        <v>9.096251255057926</v>
+        <v>7.059873505306127</v>
       </c>
       <c r="E3">
-        <v>10.44012375205457</v>
+        <v>6.363188448433312</v>
       </c>
       <c r="F3">
-        <v>44.98296002507977</v>
+        <v>40.79981435817168</v>
       </c>
       <c r="I3">
-        <v>36.8789051741067</v>
+        <v>31.03942932568475</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.53844627163413</v>
+        <v>9.989753542312076</v>
       </c>
       <c r="L3">
-        <v>10.5569032204261</v>
+        <v>6.609070179714914</v>
       </c>
       <c r="M3">
-        <v>15.4806164093753</v>
+        <v>9.501047144849515</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03759974515391</v>
+        <v>10.86661903954315</v>
       </c>
       <c r="C4">
-        <v>4.365059952006747</v>
+        <v>6.744251337551946</v>
       </c>
       <c r="D4">
-        <v>9.089571111249414</v>
+        <v>7.06189452241841</v>
       </c>
       <c r="E4">
-        <v>10.44809934928632</v>
+        <v>6.362260963620241</v>
       </c>
       <c r="F4">
-        <v>44.78664169360824</v>
+        <v>39.92152322885168</v>
       </c>
       <c r="I4">
-        <v>36.78399229748963</v>
+        <v>30.57618022355351</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.50763355593765</v>
+        <v>9.508703084559608</v>
       </c>
       <c r="L4">
-        <v>10.56341049827718</v>
+        <v>6.560239989264733</v>
       </c>
       <c r="M4">
-        <v>15.49112978020073</v>
+        <v>9.362279189561907</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.0218222598864</v>
+        <v>10.68767888091966</v>
       </c>
       <c r="C5">
-        <v>4.299305600786987</v>
+        <v>6.611135249945196</v>
       </c>
       <c r="D5">
-        <v>9.086782373268077</v>
+        <v>7.062697846993885</v>
       </c>
       <c r="E5">
-        <v>10.45154654763921</v>
+        <v>6.362302550360058</v>
       </c>
       <c r="F5">
-        <v>44.70798604298087</v>
+        <v>39.56337121246447</v>
       </c>
       <c r="I5">
-        <v>36.74621056018929</v>
+        <v>30.38867151184747</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.4960588060891</v>
+        <v>9.306557752160687</v>
       </c>
       <c r="L5">
-        <v>10.56643086163664</v>
+        <v>6.541064597388938</v>
       </c>
       <c r="M5">
-        <v>15.49618636401402</v>
+        <v>9.306807533787994</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.01927366673491</v>
+        <v>10.65781416436014</v>
       </c>
       <c r="C6">
-        <v>4.288270775520095</v>
+        <v>6.588805744398988</v>
       </c>
       <c r="D6">
-        <v>9.086315278974947</v>
+        <v>7.06283001741605</v>
       </c>
       <c r="E6">
-        <v>10.4521308645325</v>
+        <v>6.36233454563523</v>
       </c>
       <c r="F6">
-        <v>44.69500808917498</v>
+        <v>39.50389614256296</v>
       </c>
       <c r="I6">
-        <v>36.7399915077231</v>
+        <v>30.35761542682789</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.49419643437469</v>
+        <v>9.272620387770147</v>
       </c>
       <c r="L6">
-        <v>10.56695465912577</v>
+        <v>6.537924103570153</v>
       </c>
       <c r="M6">
-        <v>15.49707265752905</v>
+        <v>9.297663013014997</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03738219826472</v>
+        <v>10.86421612332284</v>
       </c>
       <c r="C7">
-        <v>4.364180988735125</v>
+        <v>6.742471200398962</v>
       </c>
       <c r="D7">
-        <v>9.089533771106124</v>
+        <v>7.061905438235789</v>
       </c>
       <c r="E7">
-        <v>10.44814504102365</v>
+        <v>6.362259837066424</v>
       </c>
       <c r="F7">
-        <v>44.78557540022165</v>
+        <v>39.91669357811234</v>
       </c>
       <c r="I7">
-        <v>36.78347911100388</v>
+        <v>30.57364614458788</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.50747346556257</v>
+        <v>9.506001728278269</v>
       </c>
       <c r="L7">
-        <v>10.5634497392368</v>
+        <v>6.559978459881219</v>
       </c>
       <c r="M7">
-        <v>15.49119484772509</v>
+        <v>9.361526652120867</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.12753221161255</v>
+        <v>11.7514273400422</v>
       </c>
       <c r="C8">
-        <v>4.682023433956563</v>
+        <v>7.387962742056422</v>
       </c>
       <c r="D8">
-        <v>9.10315300927323</v>
+        <v>7.057647340158852</v>
       </c>
       <c r="E8">
-        <v>10.43228580670784</v>
+        <v>6.365636775146545</v>
       </c>
       <c r="F8">
-        <v>45.19690295623766</v>
+        <v>41.73526104058003</v>
       </c>
       <c r="I8">
-        <v>36.98320299637237</v>
+        <v>31.53782183791025</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.57464913939032</v>
+        <v>10.48238612311747</v>
       </c>
       <c r="L8">
-        <v>10.55121857141863</v>
+        <v>6.663659293547164</v>
       </c>
       <c r="M8">
-        <v>15.47203650666447</v>
+        <v>9.652669844688473</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33987600051756</v>
+        <v>13.54909329820317</v>
       </c>
       <c r="C9">
-        <v>5.242122731514793</v>
+        <v>8.539204836451891</v>
       </c>
       <c r="D9">
-        <v>9.127783482380663</v>
+        <v>7.048645626375345</v>
       </c>
       <c r="E9">
-        <v>10.40738069830967</v>
+        <v>6.386186920144832</v>
       </c>
       <c r="F9">
-        <v>46.04191804463395</v>
+        <v>45.27087099336305</v>
       </c>
       <c r="I9">
-        <v>37.40185415276847</v>
+        <v>33.46181197770961</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.73639499215225</v>
+        <v>12.20995865292497</v>
       </c>
       <c r="L9">
-        <v>10.53884257471802</v>
+        <v>6.890063509637178</v>
       </c>
       <c r="M9">
-        <v>15.45879720280748</v>
+        <v>10.25397486195507</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.51627967081287</v>
+        <v>14.87248424023226</v>
       </c>
       <c r="C10">
-        <v>5.614117291717548</v>
+        <v>9.318341700665075</v>
       </c>
       <c r="D10">
-        <v>9.144632050779272</v>
+        <v>7.041617090264738</v>
       </c>
       <c r="E10">
-        <v>10.39284100955345</v>
+        <v>6.410384857765886</v>
       </c>
       <c r="F10">
-        <v>46.68281271699456</v>
+        <v>47.83655353406527</v>
       </c>
       <c r="I10">
-        <v>37.72481677942577</v>
+        <v>34.89170942093786</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.87264201442691</v>
+        <v>13.37033664625696</v>
       </c>
       <c r="L10">
-        <v>10.5368069972074</v>
+        <v>7.070709718718095</v>
       </c>
       <c r="M10">
-        <v>15.46385355267207</v>
+        <v>10.71177263877699</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.60065147037846</v>
+        <v>15.44938807608608</v>
       </c>
       <c r="C11">
-        <v>5.774634069343588</v>
+        <v>9.659153313454478</v>
       </c>
       <c r="D11">
-        <v>9.15202997766033</v>
+        <v>7.038324109696105</v>
       </c>
       <c r="E11">
-        <v>10.3870385955089</v>
+        <v>6.423513661011576</v>
       </c>
       <c r="F11">
-        <v>46.97798147035282</v>
+        <v>48.99506397006458</v>
       </c>
       <c r="I11">
-        <v>37.87483179524324</v>
+        <v>35.54529322116923</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.93818980228964</v>
+        <v>13.87583139885901</v>
       </c>
       <c r="L11">
-        <v>10.53740751975712</v>
+        <v>7.156062073770268</v>
       </c>
       <c r="M11">
-        <v>15.46934778368549</v>
+        <v>10.9230996835509</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.63316619133193</v>
+        <v>15.66434601705209</v>
       </c>
       <c r="C12">
-        <v>5.834158085481592</v>
+        <v>9.786330880316827</v>
       </c>
       <c r="D12">
-        <v>9.154793340403089</v>
+        <v>7.037062844427864</v>
       </c>
       <c r="E12">
-        <v>10.38495776642915</v>
+        <v>6.428803180808139</v>
       </c>
       <c r="F12">
-        <v>47.09021013130694</v>
+        <v>49.43244671405541</v>
       </c>
       <c r="I12">
-        <v>37.93206140280967</v>
+        <v>35.79322560038724</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.96350435470608</v>
+        <v>14.06414510435798</v>
       </c>
       <c r="L12">
-        <v>10.53785377454323</v>
+        <v>7.188846270105895</v>
       </c>
       <c r="M12">
-        <v>15.4718857222854</v>
+        <v>11.00354066062614</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.62613889899451</v>
+        <v>15.61820491611658</v>
       </c>
       <c r="C13">
-        <v>5.821394680119434</v>
+        <v>9.759023198069999</v>
       </c>
       <c r="D13">
-        <v>9.154199889920042</v>
+        <v>7.037335125237486</v>
       </c>
       <c r="E13">
-        <v>10.38540073744474</v>
+        <v>6.427649631063528</v>
       </c>
       <c r="F13">
-        <v>47.06602052323456</v>
+        <v>49.33830784060118</v>
       </c>
       <c r="I13">
-        <v>37.91971758506336</v>
+        <v>35.73980954358053</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.95803081562084</v>
+        <v>14.02372467110193</v>
       </c>
       <c r="L13">
-        <v>10.53774794361824</v>
+        <v>7.181764882865791</v>
       </c>
       <c r="M13">
-        <v>15.47131882272749</v>
+        <v>10.9861980646881</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60331531911282</v>
+        <v>15.46714233565042</v>
       </c>
       <c r="C14">
-        <v>5.779556441998404</v>
+        <v>9.669653491926081</v>
       </c>
       <c r="D14">
-        <v>9.152258082706819</v>
+        <v>7.038220634301869</v>
       </c>
       <c r="E14">
-        <v>10.38686507303639</v>
+        <v>6.423942383473824</v>
       </c>
       <c r="F14">
-        <v>46.98720586009082</v>
+        <v>49.03107440600265</v>
       </c>
       <c r="I14">
-        <v>37.87953178447241</v>
+        <v>35.56568204649435</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.94026268330025</v>
+        <v>13.89138566864341</v>
       </c>
       <c r="L14">
-        <v>10.53743985141926</v>
+        <v>7.158749922928628</v>
       </c>
       <c r="M14">
-        <v>15.46954742659599</v>
+        <v>10.92970938797381</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.58940793441197</v>
+        <v>15.37415937595962</v>
       </c>
       <c r="C15">
-        <v>5.753764988956625</v>
+        <v>9.614669569543818</v>
       </c>
       <c r="D15">
-        <v>9.1510637193532</v>
+        <v>7.038761156541935</v>
       </c>
       <c r="E15">
-        <v>10.38777717275207</v>
+        <v>6.421713392210851</v>
       </c>
       <c r="F15">
-        <v>46.93898683321471</v>
+        <v>48.84271182797033</v>
       </c>
       <c r="I15">
-        <v>37.854971097348</v>
+        <v>35.45908053563435</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.9294427828912</v>
+        <v>13.80992312139303</v>
       </c>
       <c r="L15">
-        <v>10.53727961569167</v>
+        <v>7.144713135680751</v>
       </c>
       <c r="M15">
-        <v>15.46852189954231</v>
+        <v>10.89516201320607</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.51084639430332</v>
+        <v>14.83428583975707</v>
       </c>
       <c r="C16">
-        <v>5.603451196724584</v>
+        <v>9.295801247772843</v>
       </c>
       <c r="D16">
-        <v>9.144143237162243</v>
+        <v>7.041830326226342</v>
       </c>
       <c r="E16">
-        <v>10.39323651921293</v>
+        <v>6.409570621791238</v>
       </c>
       <c r="F16">
-        <v>46.66358999514335</v>
+        <v>47.76066037965931</v>
       </c>
       <c r="I16">
-        <v>37.71507330785375</v>
+        <v>34.84905712800467</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.86842842138652</v>
+        <v>13.33686050060181</v>
       </c>
       <c r="L16">
-        <v>10.53679841447851</v>
+        <v>7.065196147012723</v>
       </c>
       <c r="M16">
-        <v>15.46355860806073</v>
+        <v>10.69802133056502</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.46368822684994</v>
+        <v>14.49673185591396</v>
       </c>
       <c r="C17">
-        <v>5.509002152256747</v>
+        <v>9.096749911320392</v>
       </c>
       <c r="D17">
-        <v>9.139829657106862</v>
+        <v>7.043688313713553</v>
       </c>
       <c r="E17">
-        <v>10.39679334360048</v>
+        <v>6.402673552768889</v>
       </c>
       <c r="F17">
-        <v>46.49552391494291</v>
+        <v>47.09457145337995</v>
       </c>
       <c r="I17">
-        <v>37.63002763727689</v>
+        <v>34.47560786995301</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.83189804694166</v>
+        <v>13.04099869028827</v>
       </c>
       <c r="L17">
-        <v>10.53689374714501</v>
+        <v>7.017232344331827</v>
       </c>
       <c r="M17">
-        <v>15.46133060240832</v>
+        <v>10.57784763424622</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.43695411838067</v>
+        <v>14.30020871534348</v>
       </c>
       <c r="C18">
-        <v>5.453858497625371</v>
+        <v>8.980973479103174</v>
       </c>
       <c r="D18">
-        <v>9.1373234936208</v>
+        <v>7.044748011766079</v>
       </c>
       <c r="E18">
-        <v>10.39891556088552</v>
+        <v>6.398905353161781</v>
       </c>
       <c r="F18">
-        <v>46.39920175177519</v>
+        <v>46.71064339188126</v>
       </c>
       <c r="I18">
-        <v>37.58140463179215</v>
+        <v>34.26110238306399</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.81122388059492</v>
+        <v>12.86871439841075</v>
       </c>
       <c r="L18">
-        <v>10.53709230795124</v>
+        <v>6.989943232690663</v>
       </c>
       <c r="M18">
-        <v>15.46034988691204</v>
+        <v>10.50901712514781</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.42797023529335</v>
+        <v>14.23325903811546</v>
       </c>
       <c r="C19">
-        <v>5.435047423907307</v>
+        <v>8.941550222974207</v>
       </c>
       <c r="D19">
-        <v>9.136470629673358</v>
+        <v>7.045105281795985</v>
       </c>
       <c r="E19">
-        <v>10.39964724282501</v>
+        <v>6.397663274381869</v>
       </c>
       <c r="F19">
-        <v>46.36664998123812</v>
+        <v>46.58051596533597</v>
       </c>
       <c r="I19">
-        <v>37.56499273912066</v>
+        <v>34.18852560969007</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.80428246278393</v>
+        <v>12.81001588242722</v>
       </c>
       <c r="L19">
-        <v>10.53718424139291</v>
+        <v>6.980754694512046</v>
       </c>
       <c r="M19">
-        <v>15.46006954513192</v>
+        <v>10.48576307860812</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.46866812916586</v>
+        <v>14.53290970076255</v>
       </c>
       <c r="C20">
-        <v>5.519141252245694</v>
+        <v>9.11807196513767</v>
       </c>
       <c r="D20">
-        <v>9.140291441583443</v>
+        <v>7.043491459376755</v>
       </c>
       <c r="E20">
-        <v>10.39640680601319</v>
+        <v>6.403387090899101</v>
       </c>
       <c r="F20">
-        <v>46.51337960733571</v>
+        <v>47.1655624850768</v>
       </c>
       <c r="I20">
-        <v>37.63905073439256</v>
+        <v>34.51533207468074</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.83575201754995</v>
+        <v>13.07271154220295</v>
       </c>
       <c r="L20">
-        <v>10.53686872805991</v>
+        <v>7.022307249589186</v>
       </c>
       <c r="M20">
-        <v>15.46153666136146</v>
+        <v>10.59061050879096</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.61000405549243</v>
+        <v>15.51160722238775</v>
       </c>
       <c r="C21">
-        <v>5.791879603431341</v>
+        <v>9.695953903025885</v>
       </c>
       <c r="D21">
-        <v>9.152829469746044</v>
+        <v>7.037960931198393</v>
       </c>
       <c r="E21">
-        <v>10.38643180510189</v>
+        <v>6.425022555273381</v>
       </c>
       <c r="F21">
-        <v>47.01034382974397</v>
+        <v>49.12135247024671</v>
       </c>
       <c r="I21">
-        <v>37.89132405971898</v>
+        <v>35.61681570302459</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.94546839880298</v>
+        <v>13.93034021764194</v>
       </c>
       <c r="L21">
-        <v>10.53752441173486</v>
+        <v>7.165497343261776</v>
       </c>
       <c r="M21">
-        <v>15.47005533177784</v>
+        <v>10.94629035014614</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.70565438827419</v>
+        <v>16.13088385491206</v>
       </c>
       <c r="C22">
-        <v>5.96278213881088</v>
+        <v>10.0627160439955</v>
       </c>
       <c r="D22">
-        <v>9.160802003894872</v>
+        <v>7.034262832757696</v>
       </c>
       <c r="E22">
-        <v>10.38059099726842</v>
+        <v>6.441022491954079</v>
       </c>
       <c r="F22">
-        <v>47.33775756086185</v>
+        <v>50.39188665133069</v>
       </c>
       <c r="I22">
-        <v>38.05864871053942</v>
+        <v>36.33924391577389</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.02003815903166</v>
+        <v>14.47280307372562</v>
       </c>
       <c r="L22">
-        <v>10.53922819678813</v>
+        <v>7.261784437072285</v>
       </c>
       <c r="M22">
-        <v>15.4782877131476</v>
+        <v>11.18116754174897</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.65431356334513</v>
+        <v>15.80218796460626</v>
       </c>
       <c r="C23">
-        <v>5.872242737330566</v>
+        <v>9.867938717001895</v>
       </c>
       <c r="D23">
-        <v>9.156567121122469</v>
+        <v>7.036244424677745</v>
       </c>
       <c r="E23">
-        <v>10.38364637400682</v>
+        <v>6.432308289259432</v>
       </c>
       <c r="F23">
-        <v>47.16279314071596</v>
+        <v>49.71449248990243</v>
       </c>
       <c r="I23">
-        <v>37.96912815309087</v>
+        <v>35.95343504753551</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.97998372391875</v>
+        <v>14.18489281611579</v>
       </c>
       <c r="L23">
-        <v>10.53820240897092</v>
+        <v>7.210144032827884</v>
       </c>
       <c r="M23">
-        <v>15.47365080236748</v>
+        <v>11.05559376345307</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.4664155365584</v>
+        <v>14.51656136393162</v>
       </c>
       <c r="C24">
-        <v>5.514559992282314</v>
+        <v>9.108436441622411</v>
       </c>
       <c r="D24">
-        <v>9.140082750533201</v>
+        <v>7.043580483609968</v>
       </c>
       <c r="E24">
-        <v>10.39658131870152</v>
+        <v>6.403063887609095</v>
       </c>
       <c r="F24">
-        <v>46.50530610530262</v>
+        <v>47.13347049991786</v>
       </c>
       <c r="I24">
-        <v>37.63497054660503</v>
+        <v>34.49737215149092</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.8340086153907</v>
+        <v>13.05838098954183</v>
       </c>
       <c r="L24">
-        <v>10.53687959137272</v>
+        <v>7.020011994810227</v>
       </c>
       <c r="M24">
-        <v>15.46144256690057</v>
+        <v>10.58483960455225</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.27875025774953</v>
+        <v>13.03882267395625</v>
       </c>
       <c r="C25">
-        <v>5.097483332068819</v>
+        <v>8.239730448153541</v>
       </c>
       <c r="D25">
-        <v>9.121340682534164</v>
+        <v>7.051152157630454</v>
       </c>
       <c r="E25">
-        <v>10.41345687919228</v>
+        <v>6.379075784788406</v>
       </c>
       <c r="F25">
-        <v>45.80954633866862</v>
+        <v>44.31922550836197</v>
       </c>
       <c r="I25">
-        <v>37.2858152377402</v>
+        <v>32.9382255618272</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.68951132431454</v>
+        <v>11.76212112148119</v>
       </c>
       <c r="L25">
-        <v>10.5409495322952</v>
+        <v>6.826320655448343</v>
       </c>
       <c r="M25">
-        <v>15.45977802025113</v>
+        <v>10.08832883831552</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.98564820970796</v>
+        <v>18.87413822588291</v>
       </c>
       <c r="C2">
-        <v>7.555005136628513</v>
+        <v>13.44500237164271</v>
       </c>
       <c r="D2">
-        <v>7.056450019912197</v>
+        <v>4.545524565132398</v>
       </c>
       <c r="E2">
-        <v>6.367472934001574</v>
+        <v>8.666320007051482</v>
       </c>
       <c r="F2">
-        <v>42.22653187799198</v>
+        <v>20.04738027488798</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.90403539068643</v>
       </c>
       <c r="I2">
-        <v>31.8014927972079</v>
+        <v>2.481799839181024</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.73409376465798</v>
+        <v>14.96232581973415</v>
       </c>
       <c r="L2">
-        <v>6.69330561115925</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.733712207466539</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.83027985529778</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.00191477440482</v>
+      </c>
+      <c r="P2">
+        <v>12.58157125093185</v>
+      </c>
+      <c r="Q2">
+        <v>16.0360740038718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.29928419517599</v>
+        <v>17.62041011815266</v>
       </c>
       <c r="C3">
-        <v>7.061773551127604</v>
+        <v>12.83368938934607</v>
       </c>
       <c r="D3">
-        <v>7.059873505306127</v>
+        <v>4.404709661463021</v>
       </c>
       <c r="E3">
-        <v>6.363188448433312</v>
+        <v>8.569901401426213</v>
       </c>
       <c r="F3">
-        <v>40.79981435817168</v>
+        <v>19.44276054548807</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.093516753007538</v>
       </c>
       <c r="I3">
-        <v>31.03942932568475</v>
+        <v>2.639130754802392</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>9.989753542312076</v>
+        <v>14.95987775701185</v>
       </c>
       <c r="L3">
-        <v>6.609070179714914</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.501047144849515</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.666460952287522</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.44162207716576</v>
+      </c>
+      <c r="P3">
+        <v>12.67945058007085</v>
+      </c>
+      <c r="Q3">
+        <v>15.76117168435962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86661903954315</v>
+        <v>16.80094711054834</v>
       </c>
       <c r="C4">
-        <v>6.744251337551946</v>
+        <v>12.44422419165068</v>
       </c>
       <c r="D4">
-        <v>7.06189452241841</v>
+        <v>4.315502611447349</v>
       </c>
       <c r="E4">
-        <v>6.362260963620241</v>
+        <v>8.508630595369025</v>
       </c>
       <c r="F4">
-        <v>39.92152322885168</v>
+        <v>19.07103813257869</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.214099836192974</v>
       </c>
       <c r="I4">
-        <v>30.57618022355351</v>
+        <v>2.740218232707579</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.508703084559608</v>
+        <v>14.96276483211961</v>
       </c>
       <c r="L4">
-        <v>6.560239989264733</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.362279189561907</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.563900193906388</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.08330746944216</v>
+      </c>
+      <c r="P4">
+        <v>12.74181472348682</v>
+      </c>
+      <c r="Q4">
+        <v>15.59650977056722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68767888091966</v>
+        <v>16.44935372431303</v>
       </c>
       <c r="C5">
-        <v>6.611135249945196</v>
+        <v>12.28817479085787</v>
       </c>
       <c r="D5">
-        <v>7.062697846993885</v>
+        <v>4.279580332079052</v>
       </c>
       <c r="E5">
-        <v>6.362302550360058</v>
+        <v>8.482447641481944</v>
       </c>
       <c r="F5">
-        <v>39.56337121246447</v>
+        <v>18.9123363790709</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.26463428307179</v>
       </c>
       <c r="I5">
-        <v>30.38867151184747</v>
+        <v>2.785568819306189</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.306557752160687</v>
+        <v>14.9598642612745</v>
       </c>
       <c r="L5">
-        <v>6.541064597388938</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.306807533787994</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.522118214034587</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.93250441451645</v>
+      </c>
+      <c r="P5">
+        <v>12.76827162729811</v>
+      </c>
+      <c r="Q5">
+        <v>15.52486562124957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65781416436014</v>
+        <v>16.38396742404468</v>
       </c>
       <c r="C6">
-        <v>6.588805744398988</v>
+        <v>12.26955304464265</v>
       </c>
       <c r="D6">
-        <v>7.06283001741605</v>
+        <v>4.274920666657014</v>
       </c>
       <c r="E6">
-        <v>6.36233454563523</v>
+        <v>8.477235668746552</v>
       </c>
       <c r="F6">
-        <v>39.50389614256296</v>
+        <v>18.87705082568165</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.273475678935031</v>
       </c>
       <c r="I6">
-        <v>30.35761542682789</v>
+        <v>2.797066614895999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.272620387770147</v>
+        <v>14.95315318113782</v>
       </c>
       <c r="L6">
-        <v>6.537924103570153</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.297663013014997</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.515736869606076</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.90561507891095</v>
+      </c>
+      <c r="P6">
+        <v>12.7732908279318</v>
+      </c>
+      <c r="Q6">
+        <v>15.50615146597308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86421612332284</v>
+        <v>16.77961582219653</v>
       </c>
       <c r="C7">
-        <v>6.742471200398962</v>
+        <v>12.46232420132848</v>
       </c>
       <c r="D7">
-        <v>7.061905438235789</v>
+        <v>4.318672743512725</v>
       </c>
       <c r="E7">
-        <v>6.362259837066424</v>
+        <v>8.506043453268539</v>
       </c>
       <c r="F7">
-        <v>39.91669357811234</v>
+        <v>19.04471322975025</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.215808592606103</v>
       </c>
       <c r="I7">
-        <v>30.57364614458788</v>
+        <v>2.751165089544354</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.506001728278269</v>
+        <v>14.94555326987288</v>
       </c>
       <c r="L7">
-        <v>6.559978459881219</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.361526652120867</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.564927197400314</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.07686427706158</v>
+      </c>
+      <c r="P7">
+        <v>12.74385662415916</v>
+      </c>
+      <c r="Q7">
+        <v>15.57684569573357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.7514273400422</v>
+        <v>18.43182813576326</v>
       </c>
       <c r="C8">
-        <v>7.387962742056422</v>
+        <v>13.26266927243873</v>
       </c>
       <c r="D8">
-        <v>7.057647340158852</v>
+        <v>4.50228577537454</v>
       </c>
       <c r="E8">
-        <v>6.365636775146545</v>
+        <v>8.630691970369934</v>
       </c>
       <c r="F8">
-        <v>41.73526104058003</v>
+        <v>19.80830267434026</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.969782501858356</v>
       </c>
       <c r="I8">
-        <v>31.53782183791025</v>
+        <v>2.548534668734117</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.48238612311747</v>
+        <v>14.93795334502042</v>
       </c>
       <c r="L8">
-        <v>6.663659293547164</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.652669844688473</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.776301480346857</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.80623731561554</v>
+      </c>
+      <c r="P8">
+        <v>12.61739062101195</v>
+      </c>
+      <c r="Q8">
+        <v>15.91626962312495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54909329820317</v>
+        <v>21.30673625771475</v>
       </c>
       <c r="C9">
-        <v>8.539204836451891</v>
+        <v>14.68327423677447</v>
       </c>
       <c r="D9">
-        <v>7.048645626375345</v>
+        <v>4.833314624727429</v>
       </c>
       <c r="E9">
-        <v>6.386186920144832</v>
+        <v>8.863013925327586</v>
       </c>
       <c r="F9">
-        <v>45.27087099336305</v>
+        <v>21.33433668441403</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.601507880253449</v>
       </c>
       <c r="I9">
-        <v>33.46181197770961</v>
+        <v>2.777100289089189</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.20995865292497</v>
+        <v>14.9899200953515</v>
       </c>
       <c r="L9">
-        <v>6.890063509637178</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.25397486195507</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.170988891234686</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.12494306961332</v>
+      </c>
+      <c r="P9">
+        <v>12.38408536460678</v>
+      </c>
+      <c r="Q9">
+        <v>16.64501159033525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87248424023226</v>
+        <v>23.13586326974643</v>
       </c>
       <c r="C10">
-        <v>9.318341700665075</v>
+        <v>15.71396178967943</v>
       </c>
       <c r="D10">
-        <v>7.041617090264738</v>
+        <v>5.080092613374829</v>
       </c>
       <c r="E10">
-        <v>6.410384857765886</v>
+        <v>8.998034719620177</v>
       </c>
       <c r="F10">
-        <v>47.83655353406527</v>
+        <v>22.32547784490531</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.899133074096397</v>
       </c>
       <c r="I10">
-        <v>34.89170942093786</v>
+        <v>3.027691282573009</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.37033664625696</v>
+        <v>14.97115316263119</v>
       </c>
       <c r="L10">
-        <v>7.070709718718095</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.71177263877699</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.352032899551107</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.91924346554885</v>
+      </c>
+      <c r="P10">
+        <v>12.23866206269266</v>
+      </c>
+      <c r="Q10">
+        <v>17.10521603454583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44938807608608</v>
+        <v>23.54562320731726</v>
       </c>
       <c r="C11">
-        <v>9.659153313454478</v>
+        <v>16.64417737198374</v>
       </c>
       <c r="D11">
-        <v>7.038324109696105</v>
+        <v>5.342955529625329</v>
       </c>
       <c r="E11">
-        <v>6.423513661011576</v>
+        <v>9.015829893307863</v>
       </c>
       <c r="F11">
-        <v>48.99506397006458</v>
+        <v>21.86297123285694</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.814972185234365</v>
       </c>
       <c r="I11">
-        <v>35.54529322116923</v>
+        <v>3.104184096005651</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.87583139885901</v>
+        <v>14.3152289073438</v>
       </c>
       <c r="L11">
-        <v>7.156062073770268</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>10.9230996835509</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.638954099161714</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.44674822443038</v>
+      </c>
+      <c r="P11">
+        <v>12.31405272129237</v>
+      </c>
+      <c r="Q11">
+        <v>16.57543057529122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66434601705209</v>
+        <v>23.53801806303021</v>
       </c>
       <c r="C12">
-        <v>9.786330880316827</v>
+        <v>17.20349777283248</v>
       </c>
       <c r="D12">
-        <v>7.037062844427864</v>
+        <v>5.514429289412162</v>
       </c>
       <c r="E12">
-        <v>6.428803180808139</v>
+        <v>9.248129347019585</v>
       </c>
       <c r="F12">
-        <v>49.43244671405541</v>
+        <v>21.28200771623223</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.105575825397696</v>
       </c>
       <c r="I12">
-        <v>35.79322560038724</v>
+        <v>3.115814070796709</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.06414510435798</v>
+        <v>13.79322541299639</v>
       </c>
       <c r="L12">
-        <v>7.188846270105895</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.00354066062614</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.071831970426389</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.87977449025419</v>
+      </c>
+      <c r="P12">
+        <v>12.42558986921133</v>
+      </c>
+      <c r="Q12">
+        <v>16.04467921655773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.61820491611658</v>
+        <v>23.18995090405626</v>
       </c>
       <c r="C13">
-        <v>9.759023198069999</v>
+        <v>17.5494512170851</v>
       </c>
       <c r="D13">
-        <v>7.037335125237486</v>
+        <v>5.63310597983312</v>
       </c>
       <c r="E13">
-        <v>6.427649631063528</v>
+        <v>9.633087317404977</v>
       </c>
       <c r="F13">
-        <v>49.33830784060118</v>
+        <v>20.52595197471031</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.448517726131411</v>
       </c>
       <c r="I13">
-        <v>35.73980954358053</v>
+        <v>3.082190643368381</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.02372467110193</v>
+        <v>13.31837038073462</v>
       </c>
       <c r="L13">
-        <v>7.181764882865791</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>10.9861980646881</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.603503718097215</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.18595067287839</v>
+      </c>
+      <c r="P13">
+        <v>12.56890569105241</v>
+      </c>
+      <c r="Q13">
+        <v>15.44564371000419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46714233565042</v>
+        <v>22.78340583874151</v>
       </c>
       <c r="C14">
-        <v>9.669653491926081</v>
+        <v>17.70509731179159</v>
       </c>
       <c r="D14">
-        <v>7.038220634301869</v>
+        <v>5.694548711609338</v>
       </c>
       <c r="E14">
-        <v>6.423942383473824</v>
+        <v>9.987017961301186</v>
       </c>
       <c r="F14">
-        <v>49.03107440600265</v>
+        <v>19.9041123178053</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.466005317230699</v>
       </c>
       <c r="I14">
-        <v>35.56568204649435</v>
+        <v>3.039370170743226</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.89138566864341</v>
+        <v>13.00815496901069</v>
       </c>
       <c r="L14">
-        <v>7.158749922928628</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10.92970938797381</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.349511864247091</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.63398428960524</v>
+      </c>
+      <c r="P14">
+        <v>12.68468123849936</v>
+      </c>
+      <c r="Q14">
+        <v>14.98815983557813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37415937595962</v>
+        <v>22.60476929770694</v>
       </c>
       <c r="C15">
-        <v>9.614669569543818</v>
+        <v>17.70392318791651</v>
       </c>
       <c r="D15">
-        <v>7.038761156541935</v>
+        <v>5.699155438509599</v>
       </c>
       <c r="E15">
-        <v>6.421713392210851</v>
+        <v>10.07408202750876</v>
       </c>
       <c r="F15">
-        <v>48.84271182797033</v>
+        <v>19.70760526385152</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.704070031471565</v>
       </c>
       <c r="I15">
-        <v>35.45908053563435</v>
+        <v>3.020202029355134</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.80992312139303</v>
+        <v>12.93808583084657</v>
       </c>
       <c r="L15">
-        <v>7.144713135680751</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.89516201320607</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.299008397822623</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.47056863285193</v>
+      </c>
+      <c r="P15">
+        <v>12.71790886266241</v>
+      </c>
+      <c r="Q15">
+        <v>14.85722606882866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.83428583975707</v>
+        <v>21.89351460423277</v>
       </c>
       <c r="C16">
-        <v>9.295801247772843</v>
+        <v>17.24161043789874</v>
       </c>
       <c r="D16">
-        <v>7.041830326226342</v>
+        <v>5.578648157879933</v>
       </c>
       <c r="E16">
-        <v>6.409570621791238</v>
+        <v>9.929741021001362</v>
       </c>
       <c r="F16">
-        <v>47.76066037965931</v>
+        <v>19.3843142958039</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.491748802582245</v>
       </c>
       <c r="I16">
-        <v>34.84905712800467</v>
+        <v>2.921976029054792</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.33686050060181</v>
+        <v>13.03595161231826</v>
       </c>
       <c r="L16">
-        <v>7.065196147012723</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.69802133056502</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.306642924800895</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.23661725579056</v>
+      </c>
+      <c r="P16">
+        <v>12.73706837249093</v>
+      </c>
+      <c r="Q16">
+        <v>14.75105436398794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.49673185591396</v>
+        <v>21.56262439182672</v>
       </c>
       <c r="C17">
-        <v>9.096749911320392</v>
+        <v>16.79365756858692</v>
       </c>
       <c r="D17">
-        <v>7.043688313713553</v>
+        <v>5.450989653520306</v>
       </c>
       <c r="E17">
-        <v>6.402673552768889</v>
+        <v>9.611516121069998</v>
       </c>
       <c r="F17">
-        <v>47.09457145337995</v>
+        <v>19.47823401542318</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.748501564494057</v>
       </c>
       <c r="I17">
-        <v>34.47560786995301</v>
+        <v>2.869489532722014</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.04099869028827</v>
+        <v>13.27265374010604</v>
       </c>
       <c r="L17">
-        <v>7.017232344331827</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.57784763424622</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.434207137591594</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.36029634076805</v>
+      </c>
+      <c r="P17">
+        <v>12.69203439524581</v>
+      </c>
+      <c r="Q17">
+        <v>14.91822653928008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30020871534348</v>
+        <v>21.54466843221786</v>
       </c>
       <c r="C18">
-        <v>8.980973479103174</v>
+        <v>16.29955819392071</v>
       </c>
       <c r="D18">
-        <v>7.044748011766079</v>
+        <v>5.302439254122058</v>
       </c>
       <c r="E18">
-        <v>6.398905353161781</v>
+        <v>9.200800330475058</v>
       </c>
       <c r="F18">
-        <v>46.71064339188126</v>
+        <v>19.95481722312014</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.482345944014157</v>
       </c>
       <c r="I18">
-        <v>34.26110238306399</v>
+        <v>2.848610714139044</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.86871439841075</v>
+        <v>13.67309024488691</v>
       </c>
       <c r="L18">
-        <v>6.989943232690663</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.50901712514781</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.749917562767979</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.81023391689287</v>
+      </c>
+      <c r="P18">
+        <v>12.59177420140578</v>
+      </c>
+      <c r="Q18">
+        <v>15.34888612005824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.23325903811546</v>
+        <v>21.75574803097352</v>
       </c>
       <c r="C19">
-        <v>8.941550222974207</v>
+        <v>15.85182286300269</v>
       </c>
       <c r="D19">
-        <v>7.045105281795985</v>
+        <v>5.159503550427547</v>
       </c>
       <c r="E19">
-        <v>6.397663274381869</v>
+        <v>8.908993016933186</v>
       </c>
       <c r="F19">
-        <v>46.58051596533597</v>
+        <v>20.6534712076264</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2.967674690806411</v>
       </c>
       <c r="I19">
-        <v>34.18852560969007</v>
+        <v>2.865871150485897</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.81001588242722</v>
+        <v>14.16022874053204</v>
       </c>
       <c r="L19">
-        <v>6.980754694512046</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.48576307860812</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.280633658869221</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.47505423712812</v>
+      </c>
+      <c r="P19">
+        <v>12.47336543572806</v>
+      </c>
+      <c r="Q19">
+        <v>15.92336793452127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53290970076255</v>
+        <v>22.6290402482672</v>
       </c>
       <c r="C20">
-        <v>9.11807196513767</v>
+        <v>15.50444757468389</v>
       </c>
       <c r="D20">
-        <v>7.043491459376755</v>
+        <v>5.027648917933544</v>
       </c>
       <c r="E20">
-        <v>6.403387090899101</v>
+        <v>8.956034681228845</v>
       </c>
       <c r="F20">
-        <v>47.1655624850768</v>
+        <v>21.99636543431143</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.817675954618978</v>
       </c>
       <c r="I20">
-        <v>34.51533207468074</v>
+        <v>2.972413766950998</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.07271154220295</v>
+        <v>14.9190875789071</v>
       </c>
       <c r="L20">
-        <v>7.022307249589186</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.59061050879096</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.305240456844916</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.69981881989976</v>
+      </c>
+      <c r="P20">
+        <v>12.28418091974664</v>
+      </c>
+      <c r="Q20">
+        <v>16.92630277394042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.51160722238775</v>
+        <v>24.03467744271545</v>
       </c>
       <c r="C21">
-        <v>9.695953903025885</v>
+        <v>16.17742903036502</v>
       </c>
       <c r="D21">
-        <v>7.037960931198393</v>
+        <v>5.183493521952924</v>
       </c>
       <c r="E21">
-        <v>6.425022555273381</v>
+        <v>9.098904007080467</v>
       </c>
       <c r="F21">
-        <v>49.12135247024671</v>
+        <v>22.9224280756787</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.053213938820141</v>
       </c>
       <c r="I21">
-        <v>35.61681570302459</v>
+        <v>3.16627259904741</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.93034021764194</v>
+        <v>15.03729435440258</v>
       </c>
       <c r="L21">
-        <v>7.165497343261776</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10.94629035014614</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.590635779937196</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.43296198474068</v>
+      </c>
+      <c r="P21">
+        <v>12.15496366806306</v>
+      </c>
+      <c r="Q21">
+        <v>17.42436140868611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.13088385491206</v>
+        <v>24.90510413923599</v>
       </c>
       <c r="C22">
-        <v>10.0627160439955</v>
+        <v>16.6096590933694</v>
       </c>
       <c r="D22">
-        <v>7.034262832757696</v>
+        <v>5.286891994853731</v>
       </c>
       <c r="E22">
-        <v>6.441022491954079</v>
+        <v>9.179924438896979</v>
       </c>
       <c r="F22">
-        <v>50.39188665133069</v>
+        <v>23.49513194563103</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.200526636215062</v>
       </c>
       <c r="I22">
-        <v>36.33924391577389</v>
+        <v>3.284764085831818</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.47280307372562</v>
+        <v>15.10393239825469</v>
       </c>
       <c r="L22">
-        <v>7.261784437072285</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.18116754174897</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.722470392611733</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.85244284468181</v>
+      </c>
+      <c r="P22">
+        <v>12.07597155277733</v>
+      </c>
+      <c r="Q22">
+        <v>17.73073854852231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80218796460626</v>
+        <v>24.45851837781811</v>
       </c>
       <c r="C23">
-        <v>9.867938717001895</v>
+        <v>16.36101780927621</v>
       </c>
       <c r="D23">
-        <v>7.036244424677745</v>
+        <v>5.228130534901729</v>
       </c>
       <c r="E23">
-        <v>6.432308289259432</v>
+        <v>9.138920707565143</v>
       </c>
       <c r="F23">
-        <v>49.71449248990243</v>
+        <v>23.21373719674416</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.123114920164817</v>
       </c>
       <c r="I23">
-        <v>35.95343504753551</v>
+        <v>3.218019646554246</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.18489281611579</v>
+        <v>15.08749774071391</v>
       </c>
       <c r="L23">
-        <v>7.210144032827884</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.05559376345307</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.650612758077018</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.63409043563911</v>
+      </c>
+      <c r="P23">
+        <v>12.11482476563486</v>
+      </c>
+      <c r="Q23">
+        <v>17.58659042755606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.51656136393162</v>
+        <v>22.6619012088298</v>
       </c>
       <c r="C24">
-        <v>9.108436441622411</v>
+        <v>15.42075918715635</v>
       </c>
       <c r="D24">
-        <v>7.043580483609968</v>
+        <v>5.005564250562995</v>
       </c>
       <c r="E24">
-        <v>6.403063887609095</v>
+        <v>8.977781310740891</v>
       </c>
       <c r="F24">
-        <v>47.13347049991786</v>
+        <v>22.10028134356107</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.822314377999299</v>
       </c>
       <c r="I24">
-        <v>34.49737215149092</v>
+        <v>2.966562463757855</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.05838098954183</v>
+        <v>15.00526443755367</v>
       </c>
       <c r="L24">
-        <v>7.020011994810227</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.58483960455225</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.375927242089538</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.76991472452351</v>
+      </c>
+      <c r="P24">
+        <v>12.27148028072969</v>
+      </c>
+      <c r="Q24">
+        <v>17.01492256694898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.03882267395625</v>
+        <v>20.54554237477963</v>
       </c>
       <c r="C25">
-        <v>8.239730448153541</v>
+        <v>14.34423830210208</v>
       </c>
       <c r="D25">
-        <v>7.051152157630454</v>
+        <v>4.752561090527806</v>
       </c>
       <c r="E25">
-        <v>6.379075784788406</v>
+        <v>8.798198218385913</v>
       </c>
       <c r="F25">
-        <v>44.31922550836197</v>
+        <v>20.88415145856635</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.638854974458099</v>
       </c>
       <c r="I25">
-        <v>32.9382255618272</v>
+        <v>2.686662324000271</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.76212112148119</v>
+        <v>14.9411667672727</v>
       </c>
       <c r="L25">
-        <v>6.826320655448343</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.08832883831552</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.068995795432022</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.77458848230348</v>
+      </c>
+      <c r="P25">
+        <v>12.4492209998282</v>
+      </c>
+      <c r="Q25">
+        <v>16.4129720903791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.87413822588291</v>
+        <v>18.60110739598285</v>
       </c>
       <c r="C2">
-        <v>13.44500237164271</v>
+        <v>13.704305323733</v>
       </c>
       <c r="D2">
-        <v>4.545524565132398</v>
+        <v>4.581590688060425</v>
       </c>
       <c r="E2">
-        <v>8.666320007051482</v>
+        <v>8.628025315865257</v>
       </c>
       <c r="F2">
-        <v>20.04738027488798</v>
+        <v>19.44210150345214</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.90403539068643</v>
+        <v>1.837027478492419</v>
       </c>
       <c r="I2">
-        <v>2.481799839181024</v>
+        <v>2.547250597250176</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.96232581973415</v>
+        <v>14.38801967140598</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.37566970312147</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.953660281551144</v>
       </c>
       <c r="N2">
-        <v>6.83027985529778</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.00191477440482</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.58157125093185</v>
+        <v>6.935076093847348</v>
       </c>
       <c r="Q2">
-        <v>16.0360740038718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.89673702639065</v>
+      </c>
+      <c r="R2">
+        <v>12.54640101799831</v>
+      </c>
+      <c r="S2">
+        <v>15.51946377571579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.62041011815266</v>
+        <v>17.3978026021701</v>
       </c>
       <c r="C3">
-        <v>12.83368938934607</v>
+        <v>13.00431081059742</v>
       </c>
       <c r="D3">
-        <v>4.404709661463021</v>
+        <v>4.421493041414802</v>
       </c>
       <c r="E3">
-        <v>8.569901401426213</v>
+        <v>8.538613618728656</v>
       </c>
       <c r="F3">
-        <v>19.44276054548807</v>
+        <v>18.89808819932795</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.093516753007538</v>
+        <v>2.014871505323514</v>
       </c>
       <c r="I3">
-        <v>2.639130754802392</v>
+        <v>2.54221867559754</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>14.95987775701185</v>
+        <v>14.42640827093683</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.50117954698248</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.893311729141912</v>
       </c>
       <c r="N3">
-        <v>6.666460952287522</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.44162207716576</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.67945058007085</v>
+        <v>6.773698939552171</v>
       </c>
       <c r="Q3">
-        <v>15.76117168435962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.34648231227443</v>
+      </c>
+      <c r="R3">
+        <v>12.62337637989479</v>
+      </c>
+      <c r="S3">
+        <v>15.2925294635059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.80094711054834</v>
+        <v>16.61111563745732</v>
       </c>
       <c r="C4">
-        <v>12.44422419165068</v>
+        <v>12.55761185374013</v>
       </c>
       <c r="D4">
-        <v>4.315502611447349</v>
+        <v>4.320084056860802</v>
       </c>
       <c r="E4">
-        <v>8.508630595369025</v>
+        <v>8.481800263437739</v>
       </c>
       <c r="F4">
-        <v>19.07103813257869</v>
+        <v>18.5634482084938</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.214099836192974</v>
+        <v>2.128092527487781</v>
       </c>
       <c r="I4">
-        <v>2.740218232707579</v>
+        <v>2.633898111645697</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>14.96276483211961</v>
+        <v>14.45322987501219</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.57903407349419</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.8771853054771</v>
       </c>
       <c r="N4">
-        <v>6.563900193906388</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.08330746944216</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.74181472348682</v>
+        <v>6.672970556978411</v>
       </c>
       <c r="Q4">
-        <v>15.59650977056722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.99429860107753</v>
+      </c>
+      <c r="R4">
+        <v>12.67337026340131</v>
+      </c>
+      <c r="S4">
+        <v>15.15676057842777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.44935372431303</v>
+        <v>16.27337661194558</v>
       </c>
       <c r="C5">
-        <v>12.28817479085787</v>
+        <v>12.37786169277669</v>
       </c>
       <c r="D5">
-        <v>4.279580332079052</v>
+        <v>4.279160364917751</v>
       </c>
       <c r="E5">
-        <v>8.482447641481944</v>
+        <v>8.457518368134435</v>
       </c>
       <c r="F5">
-        <v>18.9123363790709</v>
+        <v>18.41980820489842</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.26463428307179</v>
+        <v>2.175565823357468</v>
       </c>
       <c r="I5">
-        <v>2.785568819306189</v>
+        <v>2.67593809002029</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>14.9598642612745</v>
+        <v>14.4599673616844</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.60645269264349</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.872904635348023</v>
       </c>
       <c r="N5">
-        <v>6.522118214034587</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.93250441451645</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.76827162729811</v>
+        <v>6.63202058828649</v>
       </c>
       <c r="Q5">
-        <v>15.52486562124957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.84598109750603</v>
+      </c>
+      <c r="R5">
+        <v>12.69500915289095</v>
+      </c>
+      <c r="S5">
+        <v>15.09677567935028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.38396742404468</v>
+        <v>16.21035892154155</v>
       </c>
       <c r="C6">
-        <v>12.26955304464265</v>
+        <v>12.35562524637447</v>
       </c>
       <c r="D6">
-        <v>4.274920666657014</v>
+        <v>4.273730415851073</v>
       </c>
       <c r="E6">
-        <v>8.477235668746552</v>
+        <v>8.452680325582536</v>
       </c>
       <c r="F6">
-        <v>18.87705082568165</v>
+        <v>18.38705297036119</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.273475678935031</v>
+        <v>2.18388924472951</v>
       </c>
       <c r="I6">
-        <v>2.797066614895999</v>
+        <v>2.687599340968432</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>14.95315318113782</v>
+        <v>14.45504834653679</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.60551412488668</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.868861233322631</v>
       </c>
       <c r="N6">
-        <v>6.515736869606076</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.90561507891095</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.7732908279318</v>
+        <v>6.625781632085029</v>
       </c>
       <c r="Q6">
-        <v>15.50615146597308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.81950601273732</v>
+      </c>
+      <c r="R6">
+        <v>12.69937149804173</v>
+      </c>
+      <c r="S6">
+        <v>15.08005060624354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.77961582219653</v>
+        <v>16.59007384911852</v>
       </c>
       <c r="C7">
-        <v>12.46232420132848</v>
+        <v>12.57635643510997</v>
       </c>
       <c r="D7">
-        <v>4.318672743512725</v>
+        <v>4.323363557943837</v>
       </c>
       <c r="E7">
-        <v>8.506043453268539</v>
+        <v>8.479397890870308</v>
       </c>
       <c r="F7">
-        <v>19.04471322975025</v>
+        <v>18.53743494712553</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.215808592606103</v>
+        <v>2.129742648815934</v>
       </c>
       <c r="I7">
-        <v>2.751165089544354</v>
+        <v>2.646679740141773</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>14.94555326987288</v>
+        <v>14.43675605379577</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.5647513978052</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.866715993163526</v>
       </c>
       <c r="N7">
-        <v>6.564927197400314</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.07686427706158</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.74385662415916</v>
+        <v>6.674007387117248</v>
       </c>
       <c r="Q7">
-        <v>15.57684569573357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.9878974981615</v>
+      </c>
+      <c r="R7">
+        <v>12.67573578891415</v>
+      </c>
+      <c r="S7">
+        <v>15.13744232814519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.43182813576326</v>
+        <v>18.17593592434147</v>
       </c>
       <c r="C8">
-        <v>13.26266927243873</v>
+        <v>13.49314559022382</v>
       </c>
       <c r="D8">
-        <v>4.50228577537454</v>
+        <v>4.532009573989166</v>
       </c>
       <c r="E8">
-        <v>8.630691970369934</v>
+        <v>8.595018638993212</v>
       </c>
       <c r="F8">
-        <v>19.80830267434026</v>
+        <v>19.22409906294257</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.969782501858356</v>
+        <v>1.898780201276869</v>
       </c>
       <c r="I8">
-        <v>2.548534668734117</v>
+        <v>2.504764505446209</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.93795334502042</v>
+        <v>14.37890548863141</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.40097193940853</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.913149528961062</v>
       </c>
       <c r="N8">
-        <v>6.776301480346857</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.80623731561554</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.61739062101195</v>
+        <v>6.881878157388993</v>
       </c>
       <c r="Q8">
-        <v>15.91626962312495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.70453954165985</v>
+      </c>
+      <c r="R8">
+        <v>12.57549298963689</v>
+      </c>
+      <c r="S8">
+        <v>15.41659021373936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.30673625771475</v>
+        <v>20.93463419553002</v>
       </c>
       <c r="C9">
-        <v>14.68327423677447</v>
+        <v>15.11762990999696</v>
       </c>
       <c r="D9">
-        <v>4.833314624727429</v>
+        <v>4.908612648760077</v>
       </c>
       <c r="E9">
-        <v>8.863013925327586</v>
+        <v>8.81052570360643</v>
       </c>
       <c r="F9">
-        <v>21.33433668441403</v>
+        <v>20.59979655156316</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.601507880253449</v>
+        <v>1.643541061998561</v>
       </c>
       <c r="I9">
-        <v>2.777100289089189</v>
+        <v>2.832735094962441</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.9899200953515</v>
+        <v>14.32190300951065</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.10922101014885</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.189793129935715</v>
       </c>
       <c r="N9">
-        <v>7.170988891234686</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.12494306961332</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.38408536460678</v>
+        <v>7.27221045542349</v>
       </c>
       <c r="Q9">
-        <v>16.64501159033525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.99823881942898</v>
+      </c>
+      <c r="R9">
+        <v>12.39672286821234</v>
+      </c>
+      <c r="S9">
+        <v>16.02341023894539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.13586326974643</v>
+        <v>22.69191901983826</v>
       </c>
       <c r="C10">
-        <v>15.71396178967943</v>
+        <v>16.27852014507159</v>
       </c>
       <c r="D10">
-        <v>5.080092613374829</v>
+        <v>5.185898671271083</v>
       </c>
       <c r="E10">
-        <v>8.998034719620177</v>
+        <v>8.940410150370475</v>
       </c>
       <c r="F10">
-        <v>22.32547784490531</v>
+        <v>21.49212771691679</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.899133074096397</v>
+        <v>1.922337569136953</v>
       </c>
       <c r="I10">
-        <v>3.027691282573009</v>
+        <v>3.060853530099791</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.97115316263119</v>
+        <v>14.22818244303492</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.84965742914002</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.427218693943011</v>
       </c>
       <c r="N10">
-        <v>7.352032899551107</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.91924346554885</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.23866206269266</v>
+        <v>7.450223549480313</v>
       </c>
       <c r="Q10">
-        <v>17.10521603454583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.77595983155844</v>
+      </c>
+      <c r="R10">
+        <v>12.29574721461904</v>
+      </c>
+      <c r="S10">
+        <v>16.40149255345356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.54562320731726</v>
+        <v>23.11650022844116</v>
       </c>
       <c r="C11">
-        <v>16.64417737198374</v>
+        <v>17.21882755183847</v>
       </c>
       <c r="D11">
-        <v>5.342955529625329</v>
+        <v>5.455085648839768</v>
       </c>
       <c r="E11">
-        <v>9.015829893307863</v>
+        <v>9.009917630481153</v>
       </c>
       <c r="F11">
-        <v>21.86297123285694</v>
+        <v>21.06307622279206</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.814972185234365</v>
+        <v>2.827513635446349</v>
       </c>
       <c r="I11">
-        <v>3.104184096005651</v>
+        <v>3.133501558051376</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>14.3152289073438</v>
+        <v>13.62758372052654</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.36102570547846</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.060196749529185</v>
       </c>
       <c r="N11">
-        <v>6.638954099161714</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.44674822443038</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.31405272129237</v>
+        <v>6.724139454126382</v>
       </c>
       <c r="Q11">
-        <v>16.57543057529122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.3094531322012</v>
+      </c>
+      <c r="R11">
+        <v>12.40259844586226</v>
+      </c>
+      <c r="S11">
+        <v>15.90273312173678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.53801806303021</v>
+        <v>23.13632296517724</v>
       </c>
       <c r="C12">
-        <v>17.20349777283248</v>
+        <v>17.7558255094898</v>
       </c>
       <c r="D12">
-        <v>5.514429289412162</v>
+        <v>5.624298138726381</v>
       </c>
       <c r="E12">
-        <v>9.248129347019585</v>
+        <v>9.280592980543398</v>
       </c>
       <c r="F12">
-        <v>21.28200771623223</v>
+        <v>20.53188984091582</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.105575825397696</v>
+        <v>4.113892732061488</v>
       </c>
       <c r="I12">
-        <v>3.115814070796709</v>
+        <v>3.144540836349918</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.79322541299639</v>
+        <v>13.1682401853406</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.03481072812373</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.708283255734097</v>
       </c>
       <c r="N12">
-        <v>6.071831970426389</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.87977449025419</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.42558986921133</v>
+        <v>6.144767159618226</v>
       </c>
       <c r="Q12">
-        <v>16.04467921655773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.75118815508235</v>
+      </c>
+      <c r="R12">
+        <v>12.52716151009378</v>
+      </c>
+      <c r="S12">
+        <v>15.41610474887208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.18995090405626</v>
+        <v>22.8280983837238</v>
       </c>
       <c r="C13">
-        <v>17.5494512170851</v>
+        <v>18.05466434087469</v>
       </c>
       <c r="D13">
-        <v>5.63310597983312</v>
+        <v>5.734485742598078</v>
       </c>
       <c r="E13">
-        <v>9.633087317404977</v>
+        <v>9.693008435977411</v>
       </c>
       <c r="F13">
-        <v>20.52595197471031</v>
+        <v>19.84269144502924</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.448517726131411</v>
+        <v>5.455587894074389</v>
       </c>
       <c r="I13">
-        <v>3.082190643368381</v>
+        <v>3.11433098165318</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>13.31837038073462</v>
+        <v>12.76618373120731</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.78592937575836</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.329880026438714</v>
       </c>
       <c r="N13">
-        <v>5.603503718097215</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.18595067287839</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.56890569105241</v>
+        <v>5.664546535841232</v>
       </c>
       <c r="Q13">
-        <v>15.44564371000419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.06882435353017</v>
+      </c>
+      <c r="R13">
+        <v>12.67070134414323</v>
+      </c>
+      <c r="S13">
+        <v>14.87512414203969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.78340583874151</v>
+        <v>22.4556696427666</v>
       </c>
       <c r="C14">
-        <v>17.70509731179159</v>
+        <v>18.16561375252391</v>
       </c>
       <c r="D14">
-        <v>5.694548711609338</v>
+        <v>5.787108674622641</v>
       </c>
       <c r="E14">
-        <v>9.987017961301186</v>
+        <v>10.05948825497444</v>
       </c>
       <c r="F14">
-        <v>19.9041123178053</v>
+        <v>19.2760241477744</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.466005317230699</v>
+        <v>6.460624989912235</v>
       </c>
       <c r="I14">
-        <v>3.039370170743226</v>
+        <v>3.076004035733911</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>13.00815496901069</v>
+        <v>12.5107828594577</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.64182068990256</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.056361283407973</v>
       </c>
       <c r="N14">
-        <v>5.349511864247091</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.63398428960524</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.68468123849936</v>
+        <v>5.402715068195595</v>
       </c>
       <c r="Q14">
-        <v>14.98815983557813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.52616587819614</v>
+      </c>
+      <c r="R14">
+        <v>12.7806329200487</v>
+      </c>
+      <c r="S14">
+        <v>14.46486964450594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.60476929770694</v>
+        <v>22.28815785011015</v>
       </c>
       <c r="C15">
-        <v>17.70392318791651</v>
+        <v>18.1486736180517</v>
       </c>
       <c r="D15">
-        <v>5.699155438509599</v>
+        <v>5.788398071849819</v>
       </c>
       <c r="E15">
-        <v>10.07408202750876</v>
+        <v>10.14829765821936</v>
       </c>
       <c r="F15">
-        <v>19.70760526385152</v>
+        <v>19.09662280319588</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.704070031471565</v>
+        <v>6.698449035814706</v>
       </c>
       <c r="I15">
-        <v>3.020202029355134</v>
+        <v>3.05930847268939</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>12.93808583084657</v>
+        <v>12.45606482099659</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.61639693952113</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.983399169598991</v>
       </c>
       <c r="N15">
-        <v>5.299008397822623</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.47056863285193</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.71790886266241</v>
+        <v>5.350850364250761</v>
       </c>
       <c r="Q15">
-        <v>14.85722606882866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.36558179391453</v>
+      </c>
+      <c r="R15">
+        <v>12.81026703072079</v>
+      </c>
+      <c r="S15">
+        <v>14.34836949180067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.89351460423277</v>
+        <v>21.60182541950593</v>
       </c>
       <c r="C16">
-        <v>17.24161043789874</v>
+        <v>17.64162589099467</v>
       </c>
       <c r="D16">
-        <v>5.578648157879933</v>
+        <v>5.657195431447208</v>
       </c>
       <c r="E16">
-        <v>9.929741021001362</v>
+        <v>9.997319857019432</v>
       </c>
       <c r="F16">
-        <v>19.3843142958039</v>
+        <v>18.80490346458106</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.491748802582245</v>
+        <v>6.483691030878551</v>
       </c>
       <c r="I16">
-        <v>2.921976029054792</v>
+        <v>2.970617316546678</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>13.03595161231826</v>
+        <v>12.56943809390368</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.7371664137954</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.967090022411625</v>
       </c>
       <c r="N16">
-        <v>5.306642924800895</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.23661725579056</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.73706837249093</v>
+        <v>5.364144734781589</v>
       </c>
       <c r="Q16">
-        <v>14.75105436398794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.13655182283814</v>
+      </c>
+      <c r="R16">
+        <v>12.80970795755718</v>
+      </c>
+      <c r="S16">
+        <v>14.26721111844185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.56262439182672</v>
+        <v>21.27124617307741</v>
       </c>
       <c r="C17">
-        <v>16.79365756858692</v>
+        <v>17.18347048931494</v>
       </c>
       <c r="D17">
-        <v>5.450989653520306</v>
+        <v>5.526034492650857</v>
       </c>
       <c r="E17">
-        <v>9.611516121069998</v>
+        <v>9.668572080215654</v>
       </c>
       <c r="F17">
-        <v>19.47823401542318</v>
+        <v>18.89280668134613</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.748501564494057</v>
+        <v>5.737941486579065</v>
       </c>
       <c r="I17">
-        <v>2.869489532722014</v>
+        <v>2.923163722552343</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>13.27265374010604</v>
+        <v>12.78976439237625</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.91314989012195</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.094741778600307</v>
       </c>
       <c r="N17">
-        <v>5.434207137591594</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.36029634076805</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.69203439524581</v>
+        <v>5.49974972479739</v>
       </c>
       <c r="Q17">
-        <v>14.91822653928008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.25899482243593</v>
+      </c>
+      <c r="R17">
+        <v>12.75302858613164</v>
+      </c>
+      <c r="S17">
+        <v>14.42799191671205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54466843221786</v>
+        <v>21.23200344017282</v>
       </c>
       <c r="C18">
-        <v>16.29955819392071</v>
+        <v>16.7068341311261</v>
       </c>
       <c r="D18">
-        <v>5.302439254122058</v>
+        <v>5.379401901270402</v>
       </c>
       <c r="E18">
-        <v>9.200800330475058</v>
+        <v>9.238558453153013</v>
       </c>
       <c r="F18">
-        <v>19.95481722312014</v>
+        <v>19.33051595820135</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.482345944014157</v>
+        <v>4.468376268572377</v>
       </c>
       <c r="I18">
-        <v>2.848610714139044</v>
+        <v>2.902638244386677</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>13.67309024488691</v>
+        <v>13.14402314553308</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.17442874227266</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.363313752040467</v>
       </c>
       <c r="N18">
-        <v>5.749917562767979</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.81023391689287</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.59177420140578</v>
+        <v>5.825658377563292</v>
       </c>
       <c r="Q18">
-        <v>15.34888612005824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.70230502277455</v>
+      </c>
+      <c r="R18">
+        <v>12.6449338979646</v>
+      </c>
+      <c r="S18">
+        <v>14.82469332821415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.75574803097352</v>
+        <v>21.4065459074064</v>
       </c>
       <c r="C19">
-        <v>15.85182286300269</v>
+        <v>16.29630519702074</v>
       </c>
       <c r="D19">
-        <v>5.159503550427547</v>
+        <v>5.242140477512162</v>
       </c>
       <c r="E19">
-        <v>8.908993016933186</v>
+        <v>8.915515528764491</v>
       </c>
       <c r="F19">
-        <v>20.6534712076264</v>
+        <v>19.9677049154309</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.967674690806411</v>
+        <v>2.954249082881192</v>
       </c>
       <c r="I19">
-        <v>2.865871150485897</v>
+        <v>2.918499086989612</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>14.16022874053204</v>
+        <v>13.56488423476484</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.47546640391922</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.70852787526108</v>
       </c>
       <c r="N19">
-        <v>6.280633658869221</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.47505423712812</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.47336543572806</v>
+        <v>6.366884368022061</v>
       </c>
       <c r="Q19">
-        <v>15.92336793452127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.3567357043917</v>
+      </c>
+      <c r="R19">
+        <v>12.52086965814266</v>
+      </c>
+      <c r="S19">
+        <v>15.34625989129312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.6290402482672</v>
+        <v>22.20397549261277</v>
       </c>
       <c r="C20">
-        <v>15.50444757468389</v>
+        <v>16.03766101393224</v>
       </c>
       <c r="D20">
-        <v>5.027648917933544</v>
+        <v>5.126037349339843</v>
       </c>
       <c r="E20">
-        <v>8.956034681228845</v>
+        <v>8.900595371526538</v>
       </c>
       <c r="F20">
-        <v>21.99636543431143</v>
+        <v>21.18959841453465</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.817675954618978</v>
+        <v>1.845851388984482</v>
       </c>
       <c r="I20">
-        <v>2.972413766950998</v>
+        <v>3.014652000306911</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.9190875789071</v>
+        <v>14.19923541554636</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.88059561622879</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.315340666306435</v>
       </c>
       <c r="N20">
-        <v>7.305240456844916</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.69981881989976</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.28418091974664</v>
+        <v>7.40416270063402</v>
       </c>
       <c r="Q20">
-        <v>16.92630277394042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.56098915126561</v>
+      </c>
+      <c r="R20">
+        <v>12.3310771532993</v>
+      </c>
+      <c r="S20">
+        <v>16.24520528523923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.03467744271545</v>
+        <v>23.54853912999708</v>
       </c>
       <c r="C21">
-        <v>16.17742903036502</v>
+        <v>16.81302072288805</v>
       </c>
       <c r="D21">
-        <v>5.183493521952924</v>
+        <v>5.305455042141825</v>
       </c>
       <c r="E21">
-        <v>9.098904007080467</v>
+        <v>9.029824074362732</v>
       </c>
       <c r="F21">
-        <v>22.9224280756787</v>
+        <v>22.02715551259796</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.053213938820141</v>
+        <v>2.066702959138961</v>
       </c>
       <c r="I21">
-        <v>3.16627259904741</v>
+        <v>3.190247669882124</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>15.03729435440258</v>
+        <v>14.24197444393787</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.75940240029531</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.615085464978682</v>
       </c>
       <c r="N21">
-        <v>7.590635779937196</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.43296198474068</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.15496366806306</v>
+        <v>7.689475153292746</v>
       </c>
       <c r="Q21">
-        <v>17.42436140868611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.27913328695521</v>
+      </c>
+      <c r="R21">
+        <v>12.23453526087583</v>
+      </c>
+      <c r="S21">
+        <v>16.66817712944141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.90510413923599</v>
+        <v>24.38309535667333</v>
       </c>
       <c r="C22">
-        <v>16.6096590933694</v>
+        <v>17.30598480257432</v>
       </c>
       <c r="D22">
-        <v>5.286891994853731</v>
+        <v>5.423230428999282</v>
       </c>
       <c r="E22">
-        <v>9.179924438896979</v>
+        <v>9.104968912074467</v>
       </c>
       <c r="F22">
-        <v>23.49513194563103</v>
+        <v>22.54737421563611</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.200526636215062</v>
+        <v>2.204661071616067</v>
       </c>
       <c r="I22">
-        <v>3.284764085831818</v>
+        <v>3.296028085127432</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>15.10393239825469</v>
+        <v>14.26238723675197</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.67145561994105</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.816530671213055</v>
       </c>
       <c r="N22">
-        <v>7.722470392611733</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.85244284468181</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.07597155277733</v>
+        <v>7.820830196576664</v>
       </c>
       <c r="Q22">
-        <v>17.73073854852231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.68966078187883</v>
+      </c>
+      <c r="R22">
+        <v>12.17746037478078</v>
+      </c>
+      <c r="S22">
+        <v>16.92952133142001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.45851837781811</v>
+        <v>23.95543860669533</v>
       </c>
       <c r="C23">
-        <v>16.36101780927621</v>
+        <v>17.02448085525694</v>
       </c>
       <c r="D23">
-        <v>5.228130534901729</v>
+        <v>5.356684679527351</v>
       </c>
       <c r="E23">
-        <v>9.138920707565143</v>
+        <v>9.066823037990046</v>
       </c>
       <c r="F23">
-        <v>23.21373719674416</v>
+        <v>22.2937325211168</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.123114920164817</v>
+        <v>2.132201253085193</v>
       </c>
       <c r="I23">
-        <v>3.218019646554246</v>
+        <v>3.234790103415617</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>15.08749774071391</v>
+        <v>14.26968774129083</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.73063196825232</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.72390002381205</v>
       </c>
       <c r="N23">
-        <v>7.650612758077018</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.63409043563911</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.11482476563486</v>
+        <v>7.749190214441999</v>
       </c>
       <c r="Q23">
-        <v>17.58659042755606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.47605625290104</v>
+      </c>
+      <c r="R23">
+        <v>12.20390847545192</v>
+      </c>
+      <c r="S23">
+        <v>16.80910898599661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.6619012088298</v>
+        <v>22.23340166213198</v>
       </c>
       <c r="C24">
-        <v>15.42075918715635</v>
+        <v>15.95514618764247</v>
       </c>
       <c r="D24">
-        <v>5.005564250562995</v>
+        <v>5.103868616212743</v>
       </c>
       <c r="E24">
-        <v>8.977781310740891</v>
+        <v>8.917179109045936</v>
       </c>
       <c r="F24">
-        <v>22.10028134356107</v>
+        <v>21.28753901116485</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.822314377999299</v>
+        <v>1.850450386766076</v>
       </c>
       <c r="I24">
-        <v>2.966562463757855</v>
+        <v>3.006618470551601</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>15.00526443755367</v>
+        <v>14.27701769717759</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.93742818118296</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.376950445929348</v>
       </c>
       <c r="N24">
-        <v>7.375927242089538</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.76991472452351</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.27148028072969</v>
+        <v>7.47576668904712</v>
       </c>
       <c r="Q24">
-        <v>17.01492256694898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.63006889408419</v>
+      </c>
+      <c r="R24">
+        <v>12.31582342528695</v>
+      </c>
+      <c r="S24">
+        <v>16.32837635914609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.54554237477963</v>
+        <v>20.20357277518183</v>
       </c>
       <c r="C25">
-        <v>14.34423830210208</v>
+        <v>14.72736689813627</v>
       </c>
       <c r="D25">
-        <v>4.752561090527806</v>
+        <v>4.816201911396551</v>
       </c>
       <c r="E25">
-        <v>8.798198218385913</v>
+        <v>8.750493898708257</v>
       </c>
       <c r="F25">
-        <v>20.88415145856635</v>
+        <v>20.1902269425329</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.638854974458099</v>
+        <v>1.588351644446631</v>
       </c>
       <c r="I25">
-        <v>2.686662324000271</v>
+        <v>2.753008402055677</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.9411667672727</v>
+        <v>14.30506400248481</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.16567171963279</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.074684279118161</v>
       </c>
       <c r="N25">
-        <v>7.068995795432022</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.77458848230348</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.4492209998282</v>
+        <v>7.171161277206739</v>
       </c>
       <c r="Q25">
-        <v>16.4129720903791</v>
+        <v>12.65464951887616</v>
+      </c>
+      <c r="R25">
+        <v>12.44754032161646</v>
+      </c>
+      <c r="S25">
+        <v>15.82497707133239</v>
       </c>
     </row>
   </sheetData>
